--- a/research.xlsx
+++ b/research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\sursu\cpp-dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6FB8EE-4529-41AC-8FEC-A3F7875C3DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A800A6CB-3C30-4B43-B5E5-7BF72DE648A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18195" yWindow="3885" windowWidth="15015" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>My Dictionary</t>
   </si>
@@ -29,6 +29,18 @@
   </si>
   <si>
     <t>Unordered STL map</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Среднее</t>
+  </si>
+  <si>
+    <t>С нарастающим итогом</t>
+  </si>
+  <si>
+    <t>Количество</t>
   </si>
 </sst>
 </file>
@@ -2705,7 +2717,3883 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>out!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>My Dictionary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>out!$B$6:$GJ$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="191"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>260000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>270000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>290000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>330000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>340000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>370000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>380000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>390000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>410000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>420000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>430000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>440000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>460000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>470000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>480000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>490000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>510000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>520000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>530000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>540000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>560000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>570000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>580000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>590000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>610000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>620000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>630000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>660000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>670000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>680000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>690000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>710000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>720000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>730000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>740000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>760000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>770000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>780000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>790000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>810000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>820000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>830000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>840000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>860000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>870000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>880000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>890000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>910000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>920000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>930000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>940000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>950000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>960000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>970000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>980000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>990000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1010000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1020000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1030000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1040000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1050000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1060000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1070000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1080000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1090000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1100000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1110000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1120000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1130000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1140000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1150000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1160000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1170000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1180000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1190000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1210000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1220000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1230000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1240000</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1250000</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1260000</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1270000</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1280000</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1290000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1300000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1310000</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1320000</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1330000</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1340000</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1350000</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1360000</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1370000</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1380000</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1390000</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1410000</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1420000</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1430000</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1440000</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1450000</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1460000</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1470000</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1480000</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1490000</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1510000</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1520000</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1530000</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1540000</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1550000</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1560000</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1570000</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1580000</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1590000</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1610000</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1620000</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1630000</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1640000</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1650000</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1660000</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1670000</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1680000</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1690000</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1700000</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1710000</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1720000</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1730000</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1740000</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1750000</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1760000</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1770000</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1780000</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1790000</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1810000</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1820000</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1830000</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1840000</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1850000</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1860000</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1870000</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1880000</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1890000</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1910000</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1920000</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1930000</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1940000</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1950000</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1960000</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1970000</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1980000</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1990000</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>out!$B$7:$GJ$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="191"/>
+                <c:pt idx="0">
+                  <c:v>0.11269899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11269800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.118712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11967899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20943899999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21246000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.216422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.218388</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22240799999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22442999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22739200000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.232406</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23035600000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.234401</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.23838999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.24235200000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.25135600000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.247367</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.25033</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.42481600000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.42785600000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.43082100000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.438855</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.45581300000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.44143399999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.44284299999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.45378600000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.44882699999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.45182</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.45680700000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.45977099999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.463306</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.46176200000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.46774900000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.46775099999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.47177000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.47523500000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.479717</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.48174400000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.483348</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.49171300000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.49351600000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.49567499999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.49966500000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.49870500000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.50268999999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.50866800000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.50715500000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.857734</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.86072599999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.858711</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.86169700000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.86069899999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.86771699999999996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.86571500000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.87466200000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.87227100000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.88022599999999995</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.87665700000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.87768100000000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.87868000000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.88366599999999995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.88566100000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.888625</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.89061999999999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.889621</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.89862500000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.90061999999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.90159500000000004</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.89660300000000004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.90359299999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.90458300000000003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.91355799999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.91256000000000004</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.91908000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.92653799999999997</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.93595700000000004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.95647400000000005</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.93251600000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.94547400000000004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.948465</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.95460400000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.96741699999999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.94846799999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.95647099999999996</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.95345100000000005</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.94151099999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.94250999999999996</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.95843900000000004</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.96202699999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.96940899999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.95111599999999996</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.96648500000000004</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.95641699999999996</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.96541900000000003</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96345400000000003</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.96940800000000005</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.97040499999999996</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.98041500000000004</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.97639100000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.97638999999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.97838499999999995</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.98433999999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.988367</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.98935899999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.0063200000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.0093099999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.7074400000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.69251</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.6964600000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.69825</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.7044699999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.7014800000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.7034499999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.7662800000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.7433399999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.7160500000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.7323500000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.71841</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.7214</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.7283599999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.7243900000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.7294</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.7299100000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.7359500000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.73536</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.7353700000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.7360199999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.74936</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.7433399999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.7502899999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.75238</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.7742</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.7703</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.7703</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.7644599999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.77224</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.78128</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.77135</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.7862499999999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.77877</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.7862</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.7871999999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.80518</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.7892300000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.7971699999999999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.79769</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.7963199999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.8041799999999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.8360799999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.8091699999999999</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.82019</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.8105</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.8241000000000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.8261000000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.84995</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.8640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.86208</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.8583099999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.8666400000000001</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.8560099999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.85504</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.85914</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.85206</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.8620399999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.8540099999999999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.8630199999999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.8770100000000001</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.8670199999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.8816600000000001</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.8700600000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.8671</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.88005</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.89096</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.8979600000000001</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.9104699999999999</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.89794</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.8900300000000001</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.89151</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.9039200000000001</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.91195</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.90439</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.91286</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.9099600000000001</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.9160200000000001</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.91689</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.9213899999999999</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.92086</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.9617599999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.9653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C8BA-4ABF-8FD9-A2BB315A2786}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>out!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>STL map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>out!$B$6:$GJ$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="191"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>260000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>270000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>290000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>330000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>340000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>370000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>380000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>390000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>410000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>420000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>430000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>440000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>460000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>470000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>480000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>490000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>510000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>520000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>530000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>540000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>560000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>570000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>580000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>590000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>610000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>620000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>630000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>660000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>670000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>680000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>690000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>710000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>720000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>730000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>740000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>760000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>770000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>780000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>790000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>810000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>820000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>830000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>840000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>860000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>870000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>880000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>890000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>910000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>920000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>930000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>940000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>950000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>960000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>970000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>980000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>990000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1010000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1020000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1030000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1040000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1050000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1060000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1070000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1080000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1090000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1100000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1110000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1120000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1130000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1140000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1150000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1160000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1170000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1180000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1190000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1210000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1220000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1230000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1240000</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1250000</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1260000</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1270000</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1280000</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1290000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1300000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1310000</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1320000</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1330000</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1340000</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1350000</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1360000</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1370000</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1380000</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1390000</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1410000</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1420000</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1430000</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1440000</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1450000</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1460000</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1470000</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1480000</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1490000</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1510000</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1520000</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1530000</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1540000</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1550000</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1560000</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1570000</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1580000</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1590000</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1610000</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1620000</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1630000</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1640000</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1650000</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1660000</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1670000</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1680000</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1690000</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1700000</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1710000</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1720000</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1730000</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1740000</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1750000</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1760000</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1770000</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1780000</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1790000</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1810000</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1820000</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1830000</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1840000</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1850000</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1860000</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1870000</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1880000</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1890000</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1910000</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1920000</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1930000</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1940000</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1950000</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1960000</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1970000</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1980000</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1990000</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>out!$B$8:$GJ$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="191"/>
+                <c:pt idx="0">
+                  <c:v>7.7791200000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7765700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3777100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.103723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.110703</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.118682</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12766</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13722599999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14464299999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15256600000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16259499999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.169574</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.177532</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.187502</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19750499999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20642099999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.21442800000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.22240599999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.232406</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.24007899999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.25135600000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.25631500000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.26527299999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.27361799999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.28620299999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.29231600000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.30122199999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.309174</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.31715399999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.32815299999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.33812500000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.34704600000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.35807099999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.36615300000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.37309700000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.38497199999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.39101399999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.40192899999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.40790999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.41891299999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.43422300000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.43685600000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.44701000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.452818</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.46476200000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.47276400000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.481713</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.49071599999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.50265300000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.50863999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51961000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52961100000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53961700000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.55252199999999996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55454400000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56449099999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.57683899999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.58443900000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.593414</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.60351500000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.61139399999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.62223499999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.63131599999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64046499999999995</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.65026099999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65826899999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66722099999999995</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67918400000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68715999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69420899999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70699199999999995</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71411500000000006</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72606499999999996</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73506199999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74102000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75327200000000005</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.75735699999999995</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77119499999999996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78088299999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.78987099999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.80291400000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81189699999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82030999999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.82781300000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.83579300000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.84794099999999994</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.85371799999999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.86865099999999995</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.87770999999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.889652</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.89361199999999996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.90572900000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.91855900000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.92502700000000004</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.92849499999999996</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.94541900000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.94855599999999995</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.96273699999999995</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.97551900000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99534</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.99906799999999996</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.01014</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.01284</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.0142899999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.01936</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.0324599999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.04823</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.0483800000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.06019</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.07114</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.0851599999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.0872200000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.09894</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.1110100000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.1170100000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.12395</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.1303399999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.13981</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.15195</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.1599299999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.1709499999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.18283</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.1929000000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.20384</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.20869</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.2198</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.2355</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.2427299999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.2516499999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.2742199999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.28704</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.29358</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.3023400000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.3224400000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.33351</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.31149</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.3245499999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.3365100000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.3464</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.3613</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.36937</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.3745099999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.3873200000000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.41307</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.41632</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.43659</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.4540900000000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.46997</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.4898899999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.4854099999999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.5112099999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.49847</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.5360400000000001</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.5126999999999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.50634</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.5189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.53426</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.5790999999999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.5695600000000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.57358</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.5709599999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.5667899999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.57491</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.58982</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.59582</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.6150500000000001</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.64192</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.6689400000000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.6652400000000001</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.6814800000000001</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.68964</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.7115499999999999</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.72339</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.7396799999999999</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.7304200000000001</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.7316100000000001</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.7373000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.76129</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.7423599999999999</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.7847500000000001</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.79125</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.8018700000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.82115</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.83724</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.81212</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.81216</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.8321000000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.8344400000000001</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.83975</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.87493</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.87927</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C8BA-4ABF-8FD9-A2BB315A2786}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>out!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unordered STL map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>out!$B$6:$GJ$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="191"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>260000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>270000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>290000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>330000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>340000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>370000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>380000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>390000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>410000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>420000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>430000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>440000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>460000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>470000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>480000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>490000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>510000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>520000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>530000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>540000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>560000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>570000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>580000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>590000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>610000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>620000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>630000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>660000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>670000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>680000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>690000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>710000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>720000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>730000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>740000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>760000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>770000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>780000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>790000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>810000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>820000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>830000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>840000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>860000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>870000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>880000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>890000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>910000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>920000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>930000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>940000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>950000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>960000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>970000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>980000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>990000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1010000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1020000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1030000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1040000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1050000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1060000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1070000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1080000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1090000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1100000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1110000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1120000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1130000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1140000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1150000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1160000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1170000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1180000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1190000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1210000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1220000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1230000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1240000</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1250000</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1260000</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1270000</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1280000</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1290000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1300000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1310000</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1320000</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1330000</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1340000</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1350000</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1360000</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1370000</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1380000</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1390000</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1410000</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1420000</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1430000</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1440000</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1450000</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1460000</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1470000</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1480000</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1490000</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1510000</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1520000</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1530000</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1540000</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1550000</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1560000</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1570000</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1580000</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1590000</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1610000</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1620000</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1630000</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1640000</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1650000</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1660000</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1670000</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1680000</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1690000</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1700000</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1710000</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1720000</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1730000</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1740000</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1750000</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1760000</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1770000</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1780000</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1790000</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1810000</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1820000</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1830000</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1840000</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1850000</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1860000</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1870000</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1880000</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1890000</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1910000</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1920000</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1930000</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1940000</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1950000</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1960000</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1970000</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1980000</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1990000</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>out!$B$9:$GJ$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="191"/>
+                <c:pt idx="0">
+                  <c:v>3.6874200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2913100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7870700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8896200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2830200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8872099999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0809500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9813200000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2829900000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3802999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.2781199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.4774299999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9734299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.104745</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.110705</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.108709</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1137</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.117686</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13430800000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13908200000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.13267300000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13660600000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.14361499999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.15260599999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.154615</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.15954399999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.16256499999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.16356200000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.16558500000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.169546</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.17954700000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.18251200000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.1865</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.19148899999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.19348099999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.24038499999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.23938599999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.247339</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.268285</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.26628800000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.25531599999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.26133499999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.27726000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.27526400000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.27529300000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.27928500000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.28423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.28523599999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.30720599999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.299232</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.32612799999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.31917499999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.313189</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.31515799999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.31615700000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.34009099999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.33114100000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.33311000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.35655999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.35402099999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.37699100000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.35808000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.37898700000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.37901400000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.38200600000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.39095400000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.37602200000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.38197799999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.38793499999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.39196599999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.39794400000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.40192600000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.404891</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.41190199999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.416912</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.417854</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.42196099999999997</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.44281599999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.44324799999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.44179000000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.44578099999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.53257600000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.53457100000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.54318999999999995</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.54853499999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.55651399999999995</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.55648399999999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.55651200000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.56446499999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.57452400000000003</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.58044799999999996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.57657599999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.58247000000000004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.58355900000000005</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.592441</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.59148000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.59740300000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.60142200000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.606402</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.61289899999999997</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.62441100000000005</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.62397199999999997</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.63629500000000005</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.62632600000000005</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.64037999999999995</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.64228700000000005</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.64932699999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.64724300000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.65524800000000005</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.653254</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.66428500000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.67220299999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.67821799999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.671211</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.68616900000000003</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.69015499999999996</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.69614900000000002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.69713700000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.69819900000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.71907900000000002</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.71611999999999998</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.71815200000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.72406300000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.73504199999999997</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.73301899999999998</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.73899599999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.73803099999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.74733799999999995</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.76296200000000003</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.76498900000000003</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.77590499999999996</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.76695800000000003</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.77156400000000003</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.77109000000000005</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.778918</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.786389</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.79587300000000005</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.79684100000000002</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.79787300000000005</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.81039000000000005</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.80484100000000003</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.81781400000000004</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.82790799999999998</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.82187900000000003</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.83374400000000004</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.83582299999999998</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.84081700000000004</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.86234200000000005</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.85272099999999995</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.85175400000000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.86777400000000005</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.87170300000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.86868000000000001</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.872699</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.88472399999999995</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.89062399999999997</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.88663000000000003</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.89061900000000005</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.92259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.93550800000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.91753300000000004</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.91855200000000004</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.93649700000000002</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.92752999999999997</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.93448200000000003</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.95440100000000005</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.942492</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.95144099999999998</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.95743900000000004</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.97543400000000002</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.97140300000000002</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.97936000000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.97043699999999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.98436800000000002</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.1728700000000001</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.17686</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.17747</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.1948099999999999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.18387</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.1848399999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.1894</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.20719</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.2017500000000001</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.2127600000000001</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.2208300000000001</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.2176899999999999</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.2326900000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.2406900000000001</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.2233400000000001</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.22576</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.2354499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C8BA-4ABF-8FD9-A2BB315A2786}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1562261520"/>
+        <c:axId val="1562263600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1562261520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1562263600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1562263600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1562261520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3261,20 +7149,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3294,6 +7698,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0A9B16F-4E14-7DB6-8497-6B5FD1EF83D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3599,15 +8039,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CN12"/>
+  <dimension ref="A1:GJ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:192" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>100000</v>
       </c>
@@ -3882,7 +8322,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="2" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:192" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4160,7 +8600,7 @@
         <v>0.96041399999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:192" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4438,7 +8878,7 @@
         <v>0.89263599999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:192" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4716,11 +9156,3423 @@
         <v>0.60740700000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+    <row r="6" spans="1:192" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>100000</v>
+      </c>
+      <c r="C6">
+        <v>110000</v>
+      </c>
+      <c r="D6">
+        <v>120000</v>
+      </c>
+      <c r="E6">
+        <v>130000</v>
+      </c>
+      <c r="F6">
+        <v>140000</v>
+      </c>
+      <c r="G6">
+        <v>150000</v>
+      </c>
+      <c r="H6">
+        <v>160000</v>
+      </c>
+      <c r="I6">
+        <v>170000</v>
+      </c>
+      <c r="J6">
+        <v>180000</v>
+      </c>
+      <c r="K6">
+        <v>190000</v>
+      </c>
+      <c r="L6">
+        <v>200000</v>
+      </c>
+      <c r="M6">
+        <v>210000</v>
+      </c>
+      <c r="N6">
+        <v>220000</v>
+      </c>
+      <c r="O6">
+        <v>230000</v>
+      </c>
+      <c r="P6">
+        <v>240000</v>
+      </c>
+      <c r="Q6">
+        <v>250000</v>
+      </c>
+      <c r="R6">
+        <v>260000</v>
+      </c>
+      <c r="S6">
+        <v>270000</v>
+      </c>
+      <c r="T6">
+        <v>280000</v>
+      </c>
+      <c r="U6">
+        <v>290000</v>
+      </c>
+      <c r="V6">
+        <v>300000</v>
+      </c>
+      <c r="W6">
+        <v>310000</v>
+      </c>
+      <c r="X6">
+        <v>320000</v>
+      </c>
+      <c r="Y6">
+        <v>330000</v>
+      </c>
+      <c r="Z6">
+        <v>340000</v>
+      </c>
+      <c r="AA6">
+        <v>350000</v>
+      </c>
+      <c r="AB6">
+        <v>360000</v>
+      </c>
+      <c r="AC6">
+        <v>370000</v>
+      </c>
+      <c r="AD6">
+        <v>380000</v>
+      </c>
+      <c r="AE6">
+        <v>390000</v>
+      </c>
+      <c r="AF6">
+        <v>400000</v>
+      </c>
+      <c r="AG6">
+        <v>410000</v>
+      </c>
+      <c r="AH6">
+        <v>420000</v>
+      </c>
+      <c r="AI6">
+        <v>430000</v>
+      </c>
+      <c r="AJ6">
+        <v>440000</v>
+      </c>
+      <c r="AK6">
+        <v>450000</v>
+      </c>
+      <c r="AL6">
+        <v>460000</v>
+      </c>
+      <c r="AM6">
+        <v>470000</v>
+      </c>
+      <c r="AN6">
+        <v>480000</v>
+      </c>
+      <c r="AO6">
+        <v>490000</v>
+      </c>
+      <c r="AP6">
+        <v>500000</v>
+      </c>
+      <c r="AQ6">
+        <v>510000</v>
+      </c>
+      <c r="AR6">
+        <v>520000</v>
+      </c>
+      <c r="AS6">
+        <v>530000</v>
+      </c>
+      <c r="AT6">
+        <v>540000</v>
+      </c>
+      <c r="AU6">
+        <v>550000</v>
+      </c>
+      <c r="AV6">
+        <v>560000</v>
+      </c>
+      <c r="AW6">
+        <v>570000</v>
+      </c>
+      <c r="AX6">
+        <v>580000</v>
+      </c>
+      <c r="AY6">
+        <v>590000</v>
+      </c>
+      <c r="AZ6">
+        <v>600000</v>
+      </c>
+      <c r="BA6">
+        <v>610000</v>
+      </c>
+      <c r="BB6">
+        <v>620000</v>
+      </c>
+      <c r="BC6">
+        <v>630000</v>
+      </c>
+      <c r="BD6">
+        <v>640000</v>
+      </c>
+      <c r="BE6">
+        <v>650000</v>
+      </c>
+      <c r="BF6">
+        <v>660000</v>
+      </c>
+      <c r="BG6">
+        <v>670000</v>
+      </c>
+      <c r="BH6">
+        <v>680000</v>
+      </c>
+      <c r="BI6">
+        <v>690000</v>
+      </c>
+      <c r="BJ6">
+        <v>700000</v>
+      </c>
+      <c r="BK6">
+        <v>710000</v>
+      </c>
+      <c r="BL6">
+        <v>720000</v>
+      </c>
+      <c r="BM6">
+        <v>730000</v>
+      </c>
+      <c r="BN6">
+        <v>740000</v>
+      </c>
+      <c r="BO6">
+        <v>750000</v>
+      </c>
+      <c r="BP6">
+        <v>760000</v>
+      </c>
+      <c r="BQ6">
+        <v>770000</v>
+      </c>
+      <c r="BR6">
+        <v>780000</v>
+      </c>
+      <c r="BS6">
+        <v>790000</v>
+      </c>
+      <c r="BT6">
+        <v>800000</v>
+      </c>
+      <c r="BU6">
+        <v>810000</v>
+      </c>
+      <c r="BV6">
+        <v>820000</v>
+      </c>
+      <c r="BW6">
+        <v>830000</v>
+      </c>
+      <c r="BX6">
+        <v>840000</v>
+      </c>
+      <c r="BY6">
+        <v>850000</v>
+      </c>
+      <c r="BZ6">
+        <v>860000</v>
+      </c>
+      <c r="CA6">
+        <v>870000</v>
+      </c>
+      <c r="CB6">
+        <v>880000</v>
+      </c>
+      <c r="CC6">
+        <v>890000</v>
+      </c>
+      <c r="CD6">
+        <v>900000</v>
+      </c>
+      <c r="CE6">
+        <v>910000</v>
+      </c>
+      <c r="CF6">
+        <v>920000</v>
+      </c>
+      <c r="CG6">
+        <v>930000</v>
+      </c>
+      <c r="CH6">
+        <v>940000</v>
+      </c>
+      <c r="CI6">
+        <v>950000</v>
+      </c>
+      <c r="CJ6">
+        <v>960000</v>
+      </c>
+      <c r="CK6">
+        <v>970000</v>
+      </c>
+      <c r="CL6">
+        <v>980000</v>
+      </c>
+      <c r="CM6">
+        <v>990000</v>
+      </c>
+      <c r="CN6">
+        <v>1000000</v>
+      </c>
+      <c r="CO6">
+        <v>1010000</v>
+      </c>
+      <c r="CP6">
+        <v>1020000</v>
+      </c>
+      <c r="CQ6">
+        <v>1030000</v>
+      </c>
+      <c r="CR6">
+        <v>1040000</v>
+      </c>
+      <c r="CS6">
+        <v>1050000</v>
+      </c>
+      <c r="CT6">
+        <v>1060000</v>
+      </c>
+      <c r="CU6">
+        <v>1070000</v>
+      </c>
+      <c r="CV6">
+        <v>1080000</v>
+      </c>
+      <c r="CW6">
+        <v>1090000</v>
+      </c>
+      <c r="CX6">
+        <v>1100000</v>
+      </c>
+      <c r="CY6">
+        <v>1110000</v>
+      </c>
+      <c r="CZ6">
+        <v>1120000</v>
+      </c>
+      <c r="DA6">
+        <v>1130000</v>
+      </c>
+      <c r="DB6">
+        <v>1140000</v>
+      </c>
+      <c r="DC6">
+        <v>1150000</v>
+      </c>
+      <c r="DD6">
+        <v>1160000</v>
+      </c>
+      <c r="DE6">
+        <v>1170000</v>
+      </c>
+      <c r="DF6">
+        <v>1180000</v>
+      </c>
+      <c r="DG6">
+        <v>1190000</v>
+      </c>
+      <c r="DH6">
+        <v>1200000</v>
+      </c>
+      <c r="DI6">
+        <v>1210000</v>
+      </c>
+      <c r="DJ6">
+        <v>1220000</v>
+      </c>
+      <c r="DK6">
+        <v>1230000</v>
+      </c>
+      <c r="DL6">
+        <v>1240000</v>
+      </c>
+      <c r="DM6">
+        <v>1250000</v>
+      </c>
+      <c r="DN6">
+        <v>1260000</v>
+      </c>
+      <c r="DO6">
+        <v>1270000</v>
+      </c>
+      <c r="DP6">
+        <v>1280000</v>
+      </c>
+      <c r="DQ6">
+        <v>1290000</v>
+      </c>
+      <c r="DR6">
+        <v>1300000</v>
+      </c>
+      <c r="DS6">
+        <v>1310000</v>
+      </c>
+      <c r="DT6">
+        <v>1320000</v>
+      </c>
+      <c r="DU6">
+        <v>1330000</v>
+      </c>
+      <c r="DV6">
+        <v>1340000</v>
+      </c>
+      <c r="DW6">
+        <v>1350000</v>
+      </c>
+      <c r="DX6">
+        <v>1360000</v>
+      </c>
+      <c r="DY6">
+        <v>1370000</v>
+      </c>
+      <c r="DZ6">
+        <v>1380000</v>
+      </c>
+      <c r="EA6">
+        <v>1390000</v>
+      </c>
+      <c r="EB6">
+        <v>1400000</v>
+      </c>
+      <c r="EC6">
+        <v>1410000</v>
+      </c>
+      <c r="ED6">
+        <v>1420000</v>
+      </c>
+      <c r="EE6">
+        <v>1430000</v>
+      </c>
+      <c r="EF6">
+        <v>1440000</v>
+      </c>
+      <c r="EG6">
+        <v>1450000</v>
+      </c>
+      <c r="EH6">
+        <v>1460000</v>
+      </c>
+      <c r="EI6">
+        <v>1470000</v>
+      </c>
+      <c r="EJ6">
+        <v>1480000</v>
+      </c>
+      <c r="EK6">
+        <v>1490000</v>
+      </c>
+      <c r="EL6">
+        <v>1500000</v>
+      </c>
+      <c r="EM6">
+        <v>1510000</v>
+      </c>
+      <c r="EN6">
+        <v>1520000</v>
+      </c>
+      <c r="EO6">
+        <v>1530000</v>
+      </c>
+      <c r="EP6">
+        <v>1540000</v>
+      </c>
+      <c r="EQ6">
+        <v>1550000</v>
+      </c>
+      <c r="ER6">
+        <v>1560000</v>
+      </c>
+      <c r="ES6">
+        <v>1570000</v>
+      </c>
+      <c r="ET6">
+        <v>1580000</v>
+      </c>
+      <c r="EU6">
+        <v>1590000</v>
+      </c>
+      <c r="EV6">
+        <v>1600000</v>
+      </c>
+      <c r="EW6">
+        <v>1610000</v>
+      </c>
+      <c r="EX6">
+        <v>1620000</v>
+      </c>
+      <c r="EY6">
+        <v>1630000</v>
+      </c>
+      <c r="EZ6">
+        <v>1640000</v>
+      </c>
+      <c r="FA6">
+        <v>1650000</v>
+      </c>
+      <c r="FB6">
+        <v>1660000</v>
+      </c>
+      <c r="FC6">
+        <v>1670000</v>
+      </c>
+      <c r="FD6">
+        <v>1680000</v>
+      </c>
+      <c r="FE6">
+        <v>1690000</v>
+      </c>
+      <c r="FF6">
+        <v>1700000</v>
+      </c>
+      <c r="FG6">
+        <v>1710000</v>
+      </c>
+      <c r="FH6">
+        <v>1720000</v>
+      </c>
+      <c r="FI6">
+        <v>1730000</v>
+      </c>
+      <c r="FJ6">
+        <v>1740000</v>
+      </c>
+      <c r="FK6">
+        <v>1750000</v>
+      </c>
+      <c r="FL6">
+        <v>1760000</v>
+      </c>
+      <c r="FM6">
+        <v>1770000</v>
+      </c>
+      <c r="FN6">
+        <v>1780000</v>
+      </c>
+      <c r="FO6">
+        <v>1790000</v>
+      </c>
+      <c r="FP6">
+        <v>1800000</v>
+      </c>
+      <c r="FQ6">
+        <v>1810000</v>
+      </c>
+      <c r="FR6">
+        <v>1820000</v>
+      </c>
+      <c r="FS6">
+        <v>1830000</v>
+      </c>
+      <c r="FT6">
+        <v>1840000</v>
+      </c>
+      <c r="FU6">
+        <v>1850000</v>
+      </c>
+      <c r="FV6">
+        <v>1860000</v>
+      </c>
+      <c r="FW6">
+        <v>1870000</v>
+      </c>
+      <c r="FX6">
+        <v>1880000</v>
+      </c>
+      <c r="FY6">
+        <v>1890000</v>
+      </c>
+      <c r="FZ6">
+        <v>1900000</v>
+      </c>
+      <c r="GA6">
+        <v>1910000</v>
+      </c>
+      <c r="GB6">
+        <v>1920000</v>
+      </c>
+      <c r="GC6">
+        <v>1930000</v>
+      </c>
+      <c r="GD6">
+        <v>1940000</v>
+      </c>
+      <c r="GE6">
+        <v>1950000</v>
+      </c>
+      <c r="GF6">
+        <v>1960000</v>
+      </c>
+      <c r="GG6">
+        <v>1970000</v>
+      </c>
+      <c r="GH6">
+        <v>1980000</v>
+      </c>
+      <c r="GI6">
+        <v>1990000</v>
+      </c>
+      <c r="GJ6">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:192" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0.11269899999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.11269800000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.11672</v>
+      </c>
+      <c r="E7">
+        <v>0.118712</v>
+      </c>
+      <c r="F7">
+        <v>0.11967899999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.20943899999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.21246000000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.216422</v>
+      </c>
+      <c r="J7">
+        <v>0.218388</v>
+      </c>
+      <c r="K7">
+        <v>0.22240799999999999</v>
+      </c>
+      <c r="L7">
+        <v>0.22442999999999999</v>
+      </c>
+      <c r="M7">
+        <v>0.22739200000000001</v>
+      </c>
+      <c r="N7">
+        <v>0.232406</v>
+      </c>
+      <c r="O7">
+        <v>0.23035600000000001</v>
+      </c>
+      <c r="P7">
+        <v>0.234401</v>
+      </c>
+      <c r="Q7">
+        <v>0.23838999999999999</v>
+      </c>
+      <c r="R7">
+        <v>0.24235200000000001</v>
+      </c>
+      <c r="S7">
+        <v>0.25135600000000002</v>
+      </c>
+      <c r="T7">
+        <v>0.247367</v>
+      </c>
+      <c r="U7">
+        <v>0.25033</v>
+      </c>
+      <c r="V7">
+        <v>0.42481600000000003</v>
+      </c>
+      <c r="W7">
+        <v>0.42785600000000001</v>
+      </c>
+      <c r="X7">
+        <v>0.43082100000000001</v>
+      </c>
+      <c r="Y7">
+        <v>0.438855</v>
+      </c>
+      <c r="Z7">
+        <v>0.45581300000000002</v>
+      </c>
+      <c r="AA7">
+        <v>0.44143399999999999</v>
+      </c>
+      <c r="AB7">
+        <v>0.44284299999999999</v>
+      </c>
+      <c r="AC7">
+        <v>0.45378600000000002</v>
+      </c>
+      <c r="AD7">
+        <v>0.44882699999999998</v>
+      </c>
+      <c r="AE7">
+        <v>0.45182</v>
+      </c>
+      <c r="AF7">
+        <v>0.45680700000000002</v>
+      </c>
+      <c r="AG7">
+        <v>0.45977099999999999</v>
+      </c>
+      <c r="AH7">
+        <v>0.463306</v>
+      </c>
+      <c r="AI7">
+        <v>0.46176200000000001</v>
+      </c>
+      <c r="AJ7">
+        <v>0.46774900000000003</v>
+      </c>
+      <c r="AK7">
+        <v>0.46775099999999997</v>
+      </c>
+      <c r="AL7">
+        <v>0.47177000000000002</v>
+      </c>
+      <c r="AM7">
+        <v>0.47523500000000002</v>
+      </c>
+      <c r="AN7">
+        <v>0.479717</v>
+      </c>
+      <c r="AO7">
+        <v>0.48174400000000001</v>
+      </c>
+      <c r="AP7">
+        <v>0.483348</v>
+      </c>
+      <c r="AQ7">
+        <v>0.49171300000000001</v>
+      </c>
+      <c r="AR7">
+        <v>0.49351600000000001</v>
+      </c>
+      <c r="AS7">
+        <v>0.49567499999999998</v>
+      </c>
+      <c r="AT7">
+        <v>0.49966500000000003</v>
+      </c>
+      <c r="AU7">
+        <v>0.49870500000000001</v>
+      </c>
+      <c r="AV7">
+        <v>0.50268999999999997</v>
+      </c>
+      <c r="AW7">
+        <v>0.50866800000000001</v>
+      </c>
+      <c r="AX7">
+        <v>0.50715500000000002</v>
+      </c>
+      <c r="AY7">
+        <v>0.857734</v>
+      </c>
+      <c r="AZ7">
+        <v>0.86072599999999999</v>
+      </c>
+      <c r="BA7">
+        <v>0.858711</v>
+      </c>
+      <c r="BB7">
+        <v>0.86169700000000005</v>
+      </c>
+      <c r="BC7">
+        <v>0.86069899999999999</v>
+      </c>
+      <c r="BD7">
+        <v>0.86771699999999996</v>
+      </c>
+      <c r="BE7">
+        <v>0.86571500000000001</v>
+      </c>
+      <c r="BF7">
+        <v>0.87466200000000005</v>
+      </c>
+      <c r="BG7">
+        <v>0.87227100000000002</v>
+      </c>
+      <c r="BH7">
+        <v>0.88022599999999995</v>
+      </c>
+      <c r="BI7">
+        <v>0.87665700000000002</v>
+      </c>
+      <c r="BJ7">
+        <v>0.87768100000000004</v>
+      </c>
+      <c r="BK7">
+        <v>0.87868000000000002</v>
+      </c>
+      <c r="BL7">
+        <v>0.88366599999999995</v>
+      </c>
+      <c r="BM7">
+        <v>0.88566100000000003</v>
+      </c>
+      <c r="BN7">
+        <v>0.888625</v>
+      </c>
+      <c r="BO7">
+        <v>0.89061999999999997</v>
+      </c>
+      <c r="BP7">
+        <v>0.889621</v>
+      </c>
+      <c r="BQ7">
+        <v>0.89862500000000001</v>
+      </c>
+      <c r="BR7">
+        <v>0.90061999999999998</v>
+      </c>
+      <c r="BS7">
+        <v>0.90159500000000004</v>
+      </c>
+      <c r="BT7">
+        <v>0.89660300000000004</v>
+      </c>
+      <c r="BU7">
+        <v>0.90359299999999998</v>
+      </c>
+      <c r="BV7">
+        <v>0.90458300000000003</v>
+      </c>
+      <c r="BW7">
+        <v>0.91355799999999998</v>
+      </c>
+      <c r="BX7">
+        <v>0.91256000000000004</v>
+      </c>
+      <c r="BY7">
+        <v>0.91908000000000001</v>
+      </c>
+      <c r="BZ7">
+        <v>0.92653799999999997</v>
+      </c>
+      <c r="CA7">
+        <v>0.93595700000000004</v>
+      </c>
+      <c r="CB7">
+        <v>0.95647400000000005</v>
+      </c>
+      <c r="CC7">
+        <v>0.93251600000000001</v>
+      </c>
+      <c r="CD7">
+        <v>0.94547400000000004</v>
+      </c>
+      <c r="CE7">
+        <v>0.948465</v>
+      </c>
+      <c r="CF7">
+        <v>0.95460400000000001</v>
+      </c>
+      <c r="CG7">
+        <v>0.96741699999999997</v>
+      </c>
+      <c r="CH7">
+        <v>0.94846799999999998</v>
+      </c>
+      <c r="CI7">
+        <v>0.95647099999999996</v>
+      </c>
+      <c r="CJ7">
+        <v>0.95345100000000005</v>
+      </c>
+      <c r="CK7">
+        <v>0.94151099999999999</v>
+      </c>
+      <c r="CL7">
+        <v>0.94250999999999996</v>
+      </c>
+      <c r="CM7">
+        <v>0.95843900000000004</v>
+      </c>
+      <c r="CN7">
+        <v>0.96202699999999997</v>
+      </c>
+      <c r="CO7">
+        <v>0.96940899999999997</v>
+      </c>
+      <c r="CP7">
+        <v>0.95111599999999996</v>
+      </c>
+      <c r="CQ7">
+        <v>0.96648500000000004</v>
+      </c>
+      <c r="CR7">
+        <v>0.95641699999999996</v>
+      </c>
+      <c r="CS7">
+        <v>0.96541900000000003</v>
+      </c>
+      <c r="CT7">
+        <v>0.96345400000000003</v>
+      </c>
+      <c r="CU7">
+        <v>0.96940800000000005</v>
+      </c>
+      <c r="CV7">
+        <v>0.97040499999999996</v>
+      </c>
+      <c r="CW7">
+        <v>0.98041500000000004</v>
+      </c>
+      <c r="CX7">
+        <v>0.97639100000000001</v>
+      </c>
+      <c r="CY7">
+        <v>0.97638999999999998</v>
+      </c>
+      <c r="CZ7">
+        <v>0.97838499999999995</v>
+      </c>
+      <c r="DA7">
+        <v>0.98433999999999999</v>
+      </c>
+      <c r="DB7">
+        <v>0.988367</v>
+      </c>
+      <c r="DC7">
+        <v>0.98935899999999999</v>
+      </c>
+      <c r="DD7">
+        <v>1.0063200000000001</v>
+      </c>
+      <c r="DE7">
+        <v>1.0093099999999999</v>
+      </c>
+      <c r="DF7">
+        <v>1.7074400000000001</v>
+      </c>
+      <c r="DG7">
+        <v>1.69251</v>
+      </c>
+      <c r="DH7">
+        <v>1.6964600000000001</v>
+      </c>
+      <c r="DI7">
+        <v>1.69825</v>
+      </c>
+      <c r="DJ7">
+        <v>1.7044699999999999</v>
+      </c>
+      <c r="DK7">
+        <v>1.7014800000000001</v>
+      </c>
+      <c r="DL7">
+        <v>1.7034499999999999</v>
+      </c>
+      <c r="DM7">
+        <v>1.7662800000000001</v>
+      </c>
+      <c r="DN7">
+        <v>1.7433399999999999</v>
+      </c>
+      <c r="DO7">
+        <v>1.7160500000000001</v>
+      </c>
+      <c r="DP7">
+        <v>1.7323500000000001</v>
+      </c>
+      <c r="DQ7">
+        <v>1.71841</v>
+      </c>
+      <c r="DR7">
+        <v>1.7214</v>
+      </c>
+      <c r="DS7">
+        <v>1.7283599999999999</v>
+      </c>
+      <c r="DT7">
+        <v>1.7243900000000001</v>
+      </c>
+      <c r="DU7">
+        <v>1.7294</v>
+      </c>
+      <c r="DV7">
+        <v>1.7299100000000001</v>
+      </c>
+      <c r="DW7">
+        <v>1.7359500000000001</v>
+      </c>
+      <c r="DX7">
+        <v>1.73536</v>
+      </c>
+      <c r="DY7">
+        <v>1.7353700000000001</v>
+      </c>
+      <c r="DZ7">
+        <v>1.7360199999999999</v>
+      </c>
+      <c r="EA7">
+        <v>1.74936</v>
+      </c>
+      <c r="EB7">
+        <v>1.7433399999999999</v>
+      </c>
+      <c r="EC7">
+        <v>1.7502899999999999</v>
+      </c>
+      <c r="ED7">
+        <v>1.75238</v>
+      </c>
+      <c r="EE7">
+        <v>1.7742</v>
+      </c>
+      <c r="EF7">
+        <v>1.7703</v>
+      </c>
+      <c r="EG7">
+        <v>1.7703</v>
+      </c>
+      <c r="EH7">
+        <v>1.7644599999999999</v>
+      </c>
+      <c r="EI7">
+        <v>1.77224</v>
+      </c>
+      <c r="EJ7">
+        <v>1.78128</v>
+      </c>
+      <c r="EK7">
+        <v>1.77135</v>
+      </c>
+      <c r="EL7">
+        <v>1.7862499999999999</v>
+      </c>
+      <c r="EM7">
+        <v>1.77877</v>
+      </c>
+      <c r="EN7">
+        <v>1.7862</v>
+      </c>
+      <c r="EO7">
+        <v>1.7871999999999999</v>
+      </c>
+      <c r="EP7">
+        <v>1.80518</v>
+      </c>
+      <c r="EQ7">
+        <v>1.7892300000000001</v>
+      </c>
+      <c r="ER7">
+        <v>1.7971699999999999</v>
+      </c>
+      <c r="ES7">
+        <v>1.79769</v>
+      </c>
+      <c r="ET7">
+        <v>1.7963199999999999</v>
+      </c>
+      <c r="EU7">
+        <v>1.8041799999999999</v>
+      </c>
+      <c r="EV7">
+        <v>1.8360799999999999</v>
+      </c>
+      <c r="EW7">
+        <v>1.8091699999999999</v>
+      </c>
+      <c r="EX7">
+        <v>1.82019</v>
+      </c>
+      <c r="EY7">
+        <v>1.8105</v>
+      </c>
+      <c r="EZ7">
+        <v>1.8241000000000001</v>
+      </c>
+      <c r="FA7">
+        <v>1.8261000000000001</v>
+      </c>
+      <c r="FB7">
+        <v>1.84995</v>
+      </c>
+      <c r="FC7">
+        <v>1.8640000000000001</v>
+      </c>
+      <c r="FD7">
+        <v>1.86208</v>
+      </c>
+      <c r="FE7">
+        <v>1.8583099999999999</v>
+      </c>
+      <c r="FF7">
+        <v>1.8666400000000001</v>
+      </c>
+      <c r="FG7">
+        <v>1.8560099999999999</v>
+      </c>
+      <c r="FH7">
+        <v>1.85504</v>
+      </c>
+      <c r="FI7">
+        <v>1.85914</v>
+      </c>
+      <c r="FJ7">
+        <v>1.85206</v>
+      </c>
+      <c r="FK7">
+        <v>1.8620399999999999</v>
+      </c>
+      <c r="FL7">
+        <v>1.8540099999999999</v>
+      </c>
+      <c r="FM7">
+        <v>1.8630199999999999</v>
+      </c>
+      <c r="FN7">
+        <v>1.8770100000000001</v>
+      </c>
+      <c r="FO7">
+        <v>1.8670199999999999</v>
+      </c>
+      <c r="FP7">
+        <v>1.8816600000000001</v>
+      </c>
+      <c r="FQ7">
+        <v>1.8700600000000001</v>
+      </c>
+      <c r="FR7">
+        <v>1.8671</v>
+      </c>
+      <c r="FS7">
+        <v>1.88005</v>
+      </c>
+      <c r="FT7">
+        <v>1.89096</v>
+      </c>
+      <c r="FU7">
+        <v>1.8979600000000001</v>
+      </c>
+      <c r="FV7">
+        <v>1.9104699999999999</v>
+      </c>
+      <c r="FW7">
+        <v>1.89794</v>
+      </c>
+      <c r="FX7">
+        <v>1.8900300000000001</v>
+      </c>
+      <c r="FY7">
+        <v>1.89151</v>
+      </c>
+      <c r="FZ7">
+        <v>1.9039200000000001</v>
+      </c>
+      <c r="GA7">
+        <v>1.91195</v>
+      </c>
+      <c r="GB7">
+        <v>1.90439</v>
+      </c>
+      <c r="GC7">
+        <v>1.91286</v>
+      </c>
+      <c r="GD7">
+        <v>1.9099600000000001</v>
+      </c>
+      <c r="GE7">
+        <v>1.9160200000000001</v>
+      </c>
+      <c r="GF7">
+        <v>1.91689</v>
+      </c>
+      <c r="GG7">
+        <v>1.9213899999999999</v>
+      </c>
+      <c r="GH7">
+        <v>1.92086</v>
+      </c>
+      <c r="GI7">
+        <v>1.9617599999999999</v>
+      </c>
+      <c r="GJ7">
+        <v>1.9653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:192" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7.7791200000000005E-2</v>
+      </c>
+      <c r="C8">
+        <v>8.7765700000000002E-2</v>
+      </c>
+      <c r="D8">
+        <v>9.3777100000000002E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.103723</v>
+      </c>
+      <c r="F8">
+        <v>0.110703</v>
+      </c>
+      <c r="G8">
+        <v>0.118682</v>
+      </c>
+      <c r="H8">
+        <v>0.12766</v>
+      </c>
+      <c r="I8">
+        <v>0.13722599999999999</v>
+      </c>
+      <c r="J8">
+        <v>0.14464299999999999</v>
+      </c>
+      <c r="K8">
+        <v>0.15256600000000001</v>
+      </c>
+      <c r="L8">
+        <v>0.16259499999999999</v>
+      </c>
+      <c r="M8">
+        <v>0.169574</v>
+      </c>
+      <c r="N8">
+        <v>0.177532</v>
+      </c>
+      <c r="O8">
+        <v>0.187502</v>
+      </c>
+      <c r="P8">
+        <v>0.19750499999999999</v>
+      </c>
+      <c r="Q8">
+        <v>0.20642099999999999</v>
+      </c>
+      <c r="R8">
+        <v>0.21442800000000001</v>
+      </c>
+      <c r="S8">
+        <v>0.22240599999999999</v>
+      </c>
+      <c r="T8">
+        <v>0.232406</v>
+      </c>
+      <c r="U8">
+        <v>0.24007899999999999</v>
+      </c>
+      <c r="V8">
+        <v>0.25135600000000002</v>
+      </c>
+      <c r="W8">
+        <v>0.25631500000000002</v>
+      </c>
+      <c r="X8">
+        <v>0.26527299999999998</v>
+      </c>
+      <c r="Y8">
+        <v>0.27361799999999997</v>
+      </c>
+      <c r="Z8">
+        <v>0.28620299999999999</v>
+      </c>
+      <c r="AA8">
+        <v>0.29231600000000002</v>
+      </c>
+      <c r="AB8">
+        <v>0.30122199999999999</v>
+      </c>
+      <c r="AC8">
+        <v>0.309174</v>
+      </c>
+      <c r="AD8">
+        <v>0.31715399999999999</v>
+      </c>
+      <c r="AE8">
+        <v>0.32815299999999997</v>
+      </c>
+      <c r="AF8">
+        <v>0.33812500000000001</v>
+      </c>
+      <c r="AG8">
+        <v>0.34704600000000002</v>
+      </c>
+      <c r="AH8">
+        <v>0.35807099999999997</v>
+      </c>
+      <c r="AI8">
+        <v>0.36615300000000001</v>
+      </c>
+      <c r="AJ8">
+        <v>0.37309700000000001</v>
+      </c>
+      <c r="AK8">
+        <v>0.38497199999999998</v>
+      </c>
+      <c r="AL8">
+        <v>0.39101399999999997</v>
+      </c>
+      <c r="AM8">
+        <v>0.40192899999999998</v>
+      </c>
+      <c r="AN8">
+        <v>0.40790999999999999</v>
+      </c>
+      <c r="AO8">
+        <v>0.41891299999999998</v>
+      </c>
+      <c r="AP8">
+        <v>0.43422300000000003</v>
+      </c>
+      <c r="AQ8">
+        <v>0.43685600000000002</v>
+      </c>
+      <c r="AR8">
+        <v>0.44701000000000002</v>
+      </c>
+      <c r="AS8">
+        <v>0.452818</v>
+      </c>
+      <c r="AT8">
+        <v>0.46476200000000001</v>
+      </c>
+      <c r="AU8">
+        <v>0.47276400000000002</v>
+      </c>
+      <c r="AV8">
+        <v>0.481713</v>
+      </c>
+      <c r="AW8">
+        <v>0.49071599999999999</v>
+      </c>
+      <c r="AX8">
+        <v>0.50265300000000002</v>
+      </c>
+      <c r="AY8">
+        <v>0.50863999999999998</v>
+      </c>
+      <c r="AZ8">
+        <v>0.51961000000000002</v>
+      </c>
+      <c r="BA8">
+        <v>0.52961100000000005</v>
+      </c>
+      <c r="BB8">
+        <v>0.53961700000000001</v>
+      </c>
+      <c r="BC8">
+        <v>0.55252199999999996</v>
+      </c>
+      <c r="BD8">
+        <v>0.55454400000000004</v>
+      </c>
+      <c r="BE8">
+        <v>0.56449099999999997</v>
+      </c>
+      <c r="BF8">
+        <v>0.57683899999999999</v>
+      </c>
+      <c r="BG8">
+        <v>0.58443900000000004</v>
+      </c>
+      <c r="BH8">
+        <v>0.593414</v>
+      </c>
+      <c r="BI8">
+        <v>0.60351500000000002</v>
+      </c>
+      <c r="BJ8">
+        <v>0.61139399999999999</v>
+      </c>
+      <c r="BK8">
+        <v>0.62223499999999998</v>
+      </c>
+      <c r="BL8">
+        <v>0.63131599999999999</v>
+      </c>
+      <c r="BM8">
+        <v>0.64046499999999995</v>
+      </c>
+      <c r="BN8">
+        <v>0.65026099999999998</v>
+      </c>
+      <c r="BO8">
+        <v>0.65826899999999999</v>
+      </c>
+      <c r="BP8">
+        <v>0.66722099999999995</v>
+      </c>
+      <c r="BQ8">
+        <v>0.67918400000000001</v>
+      </c>
+      <c r="BR8">
+        <v>0.68715999999999999</v>
+      </c>
+      <c r="BS8">
+        <v>0.69420899999999996</v>
+      </c>
+      <c r="BT8">
+        <v>0.70699199999999995</v>
+      </c>
+      <c r="BU8">
+        <v>0.71411500000000006</v>
+      </c>
+      <c r="BV8">
+        <v>0.72606499999999996</v>
+      </c>
+      <c r="BW8">
+        <v>0.73506199999999999</v>
+      </c>
+      <c r="BX8">
+        <v>0.74102000000000001</v>
+      </c>
+      <c r="BY8">
+        <v>0.75327200000000005</v>
+      </c>
+      <c r="BZ8">
+        <v>0.75735699999999995</v>
+      </c>
+      <c r="CA8">
+        <v>0.77119499999999996</v>
+      </c>
+      <c r="CB8">
+        <v>0.78088299999999999</v>
+      </c>
+      <c r="CC8">
+        <v>0.78987099999999999</v>
+      </c>
+      <c r="CD8">
+        <v>0.80291400000000002</v>
+      </c>
+      <c r="CE8">
+        <v>0.81189699999999998</v>
+      </c>
+      <c r="CF8">
+        <v>0.82030999999999998</v>
+      </c>
+      <c r="CG8">
+        <v>0.82781300000000002</v>
+      </c>
+      <c r="CH8">
+        <v>0.83579300000000001</v>
+      </c>
+      <c r="CI8">
+        <v>0.84794099999999994</v>
+      </c>
+      <c r="CJ8">
+        <v>0.85371799999999998</v>
+      </c>
+      <c r="CK8">
+        <v>0.86865099999999995</v>
+      </c>
+      <c r="CL8">
+        <v>0.87770999999999999</v>
+      </c>
+      <c r="CM8">
+        <v>0.889652</v>
+      </c>
+      <c r="CN8">
+        <v>0.89361199999999996</v>
+      </c>
+      <c r="CO8">
+        <v>0.90572900000000001</v>
+      </c>
+      <c r="CP8">
+        <v>0.91855900000000001</v>
+      </c>
+      <c r="CQ8">
+        <v>0.92502700000000004</v>
+      </c>
+      <c r="CR8">
+        <v>0.92849499999999996</v>
+      </c>
+      <c r="CS8">
+        <v>0.94541900000000001</v>
+      </c>
+      <c r="CT8">
+        <v>0.94855599999999995</v>
+      </c>
+      <c r="CU8">
+        <v>0.96273699999999995</v>
+      </c>
+      <c r="CV8">
+        <v>0.97551900000000002</v>
+      </c>
+      <c r="CW8">
+        <v>0.99534</v>
+      </c>
+      <c r="CX8">
+        <v>0.99906799999999996</v>
+      </c>
+      <c r="CY8">
+        <v>1.01014</v>
+      </c>
+      <c r="CZ8">
+        <v>1.01284</v>
+      </c>
+      <c r="DA8">
+        <v>1.0142899999999999</v>
+      </c>
+      <c r="DB8">
+        <v>1.01936</v>
+      </c>
+      <c r="DC8">
+        <v>1.0324599999999999</v>
+      </c>
+      <c r="DD8">
+        <v>1.04823</v>
+      </c>
+      <c r="DE8">
+        <v>1.0483800000000001</v>
+      </c>
+      <c r="DF8">
+        <v>1.06019</v>
+      </c>
+      <c r="DG8">
+        <v>1.07114</v>
+      </c>
+      <c r="DH8">
+        <v>1.0851599999999999</v>
+      </c>
+      <c r="DI8">
+        <v>1.0872200000000001</v>
+      </c>
+      <c r="DJ8">
+        <v>1.09894</v>
+      </c>
+      <c r="DK8">
+        <v>1.1110100000000001</v>
+      </c>
+      <c r="DL8">
+        <v>1.1170100000000001</v>
+      </c>
+      <c r="DM8">
+        <v>1.12395</v>
+      </c>
+      <c r="DN8">
+        <v>1.1303399999999999</v>
+      </c>
+      <c r="DO8">
+        <v>1.13981</v>
+      </c>
+      <c r="DP8">
+        <v>1.15195</v>
+      </c>
+      <c r="DQ8">
+        <v>1.1599299999999999</v>
+      </c>
+      <c r="DR8">
+        <v>1.1709499999999999</v>
+      </c>
+      <c r="DS8">
+        <v>1.18283</v>
+      </c>
+      <c r="DT8">
+        <v>1.1929000000000001</v>
+      </c>
+      <c r="DU8">
+        <v>1.20384</v>
+      </c>
+      <c r="DV8">
+        <v>1.20869</v>
+      </c>
+      <c r="DW8">
+        <v>1.2198</v>
+      </c>
+      <c r="DX8">
+        <v>1.2355</v>
+      </c>
+      <c r="DY8">
+        <v>1.2427299999999999</v>
+      </c>
+      <c r="DZ8">
+        <v>1.2516499999999999</v>
+      </c>
+      <c r="EA8">
+        <v>1.2742199999999999</v>
+      </c>
+      <c r="EB8">
+        <v>1.28704</v>
+      </c>
+      <c r="EC8">
+        <v>1.29358</v>
+      </c>
+      <c r="ED8">
+        <v>1.3023400000000001</v>
+      </c>
+      <c r="EE8">
+        <v>1.3224400000000001</v>
+      </c>
+      <c r="EF8">
+        <v>1.33351</v>
+      </c>
+      <c r="EG8">
+        <v>1.31149</v>
+      </c>
+      <c r="EH8">
+        <v>1.3245499999999999</v>
+      </c>
+      <c r="EI8">
+        <v>1.3365100000000001</v>
+      </c>
+      <c r="EJ8">
+        <v>1.3464</v>
+      </c>
+      <c r="EK8">
+        <v>1.3613</v>
+      </c>
+      <c r="EL8">
+        <v>1.36937</v>
+      </c>
+      <c r="EM8">
+        <v>1.3745099999999999</v>
+      </c>
+      <c r="EN8">
+        <v>1.3873200000000001</v>
+      </c>
+      <c r="EO8">
+        <v>1.41307</v>
+      </c>
+      <c r="EP8">
+        <v>1.41632</v>
+      </c>
+      <c r="EQ8">
+        <v>1.43659</v>
+      </c>
+      <c r="ER8">
+        <v>1.4540900000000001</v>
+      </c>
+      <c r="ES8">
+        <v>1.46997</v>
+      </c>
+      <c r="ET8">
+        <v>1.4898899999999999</v>
+      </c>
+      <c r="EU8">
+        <v>1.4854099999999999</v>
+      </c>
+      <c r="EV8">
+        <v>1.5112099999999999</v>
+      </c>
+      <c r="EW8">
+        <v>1.49847</v>
+      </c>
+      <c r="EX8">
+        <v>1.5360400000000001</v>
+      </c>
+      <c r="EY8">
+        <v>1.5126999999999999</v>
+      </c>
+      <c r="EZ8">
+        <v>1.50634</v>
+      </c>
+      <c r="FA8">
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="FB8">
+        <v>1.53426</v>
+      </c>
+      <c r="FC8">
+        <v>1.5790999999999999</v>
+      </c>
+      <c r="FD8">
+        <v>1.5695600000000001</v>
+      </c>
+      <c r="FE8">
+        <v>1.57358</v>
+      </c>
+      <c r="FF8">
+        <v>1.5709599999999999</v>
+      </c>
+      <c r="FG8">
+        <v>1.5667899999999999</v>
+      </c>
+      <c r="FH8">
+        <v>1.57491</v>
+      </c>
+      <c r="FI8">
+        <v>1.58982</v>
+      </c>
+      <c r="FJ8">
+        <v>1.59582</v>
+      </c>
+      <c r="FK8">
+        <v>1.6150500000000001</v>
+      </c>
+      <c r="FL8">
+        <v>1.64192</v>
+      </c>
+      <c r="FM8">
+        <v>1.6689400000000001</v>
+      </c>
+      <c r="FN8">
+        <v>1.6652400000000001</v>
+      </c>
+      <c r="FO8">
+        <v>1.6814800000000001</v>
+      </c>
+      <c r="FP8">
+        <v>1.68964</v>
+      </c>
+      <c r="FQ8">
+        <v>1.7115499999999999</v>
+      </c>
+      <c r="FR8">
+        <v>1.72339</v>
+      </c>
+      <c r="FS8">
+        <v>1.7396799999999999</v>
+      </c>
+      <c r="FT8">
+        <v>1.7304200000000001</v>
+      </c>
+      <c r="FU8">
+        <v>1.7316100000000001</v>
+      </c>
+      <c r="FV8">
+        <v>1.7373000000000001</v>
+      </c>
+      <c r="FW8">
+        <v>1.76129</v>
+      </c>
+      <c r="FX8">
+        <v>1.7423599999999999</v>
+      </c>
+      <c r="FY8">
+        <v>1.7847500000000001</v>
+      </c>
+      <c r="FZ8">
+        <v>1.79125</v>
+      </c>
+      <c r="GA8">
+        <v>1.8018700000000001</v>
+      </c>
+      <c r="GB8">
+        <v>1.82115</v>
+      </c>
+      <c r="GC8">
+        <v>1.83724</v>
+      </c>
+      <c r="GD8">
+        <v>1.81212</v>
+      </c>
+      <c r="GE8">
+        <v>1.81216</v>
+      </c>
+      <c r="GF8">
+        <v>1.8321000000000001</v>
+      </c>
+      <c r="GG8">
+        <v>1.8344400000000001</v>
+      </c>
+      <c r="GH8">
+        <v>1.83975</v>
+      </c>
+      <c r="GI8">
+        <v>1.87493</v>
+      </c>
+      <c r="GJ8">
+        <v>1.87927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:192" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>3.6874200000000003E-2</v>
+      </c>
+      <c r="C9">
+        <v>4.2913100000000003E-2</v>
+      </c>
+      <c r="D9">
+        <v>4.7870700000000002E-2</v>
+      </c>
+      <c r="E9">
+        <v>4.8896200000000001E-2</v>
+      </c>
+      <c r="F9">
+        <v>5.2830200000000001E-2</v>
+      </c>
+      <c r="G9">
+        <v>5.8872099999999997E-2</v>
+      </c>
+      <c r="H9">
+        <v>6.0809500000000002E-2</v>
+      </c>
+      <c r="I9">
+        <v>6.9813200000000006E-2</v>
+      </c>
+      <c r="J9">
+        <v>7.2829900000000003E-2</v>
+      </c>
+      <c r="K9">
+        <v>7.3802999999999994E-2</v>
+      </c>
+      <c r="L9">
+        <v>8.2781199999999999E-2</v>
+      </c>
+      <c r="M9">
+        <v>8.4774299999999997E-2</v>
+      </c>
+      <c r="N9">
+        <v>9.9734299999999998E-2</v>
+      </c>
+      <c r="O9">
+        <v>0.104745</v>
+      </c>
+      <c r="P9">
+        <v>0.110705</v>
+      </c>
+      <c r="Q9">
+        <v>0.108709</v>
+      </c>
+      <c r="R9">
+        <v>0.1137</v>
+      </c>
+      <c r="S9">
+        <v>0.117686</v>
+      </c>
+      <c r="T9">
+        <v>0.13430800000000001</v>
+      </c>
+      <c r="U9">
+        <v>0.13908200000000001</v>
+      </c>
+      <c r="V9">
+        <v>0.13267300000000001</v>
+      </c>
+      <c r="W9">
+        <v>0.13660600000000001</v>
+      </c>
+      <c r="X9">
+        <v>0.14361499999999999</v>
+      </c>
+      <c r="Y9">
+        <v>0.15260599999999999</v>
+      </c>
+      <c r="Z9">
+        <v>0.154615</v>
+      </c>
+      <c r="AA9">
+        <v>0.15954399999999999</v>
+      </c>
+      <c r="AB9">
+        <v>0.16256499999999999</v>
+      </c>
+      <c r="AC9">
+        <v>0.16356200000000001</v>
+      </c>
+      <c r="AD9">
+        <v>0.16558500000000001</v>
+      </c>
+      <c r="AE9">
+        <v>0.169546</v>
+      </c>
+      <c r="AF9">
+        <v>0.17954700000000001</v>
+      </c>
+      <c r="AG9">
+        <v>0.18251200000000001</v>
+      </c>
+      <c r="AH9">
+        <v>0.1865</v>
+      </c>
+      <c r="AI9">
+        <v>0.19148899999999999</v>
+      </c>
+      <c r="AJ9">
+        <v>0.19348099999999999</v>
+      </c>
+      <c r="AK9">
+        <v>0.24038499999999999</v>
+      </c>
+      <c r="AL9">
+        <v>0.23938599999999999</v>
+      </c>
+      <c r="AM9">
+        <v>0.247339</v>
+      </c>
+      <c r="AN9">
+        <v>0.268285</v>
+      </c>
+      <c r="AO9">
+        <v>0.26628800000000002</v>
+      </c>
+      <c r="AP9">
+        <v>0.25531599999999999</v>
+      </c>
+      <c r="AQ9">
+        <v>0.26133499999999998</v>
+      </c>
+      <c r="AR9">
+        <v>0.27726000000000001</v>
+      </c>
+      <c r="AS9">
+        <v>0.27526400000000001</v>
+      </c>
+      <c r="AT9">
+        <v>0.27529300000000001</v>
+      </c>
+      <c r="AU9">
+        <v>0.27928500000000001</v>
+      </c>
+      <c r="AV9">
+        <v>0.28423999999999999</v>
+      </c>
+      <c r="AW9">
+        <v>0.28523599999999999</v>
+      </c>
+      <c r="AX9">
+        <v>0.30720599999999998</v>
+      </c>
+      <c r="AY9">
+        <v>0.299232</v>
+      </c>
+      <c r="AZ9">
+        <v>0.32612799999999997</v>
+      </c>
+      <c r="BA9">
+        <v>0.31917499999999999</v>
+      </c>
+      <c r="BB9">
+        <v>0.313189</v>
+      </c>
+      <c r="BC9">
+        <v>0.31515799999999999</v>
+      </c>
+      <c r="BD9">
+        <v>0.31615700000000002</v>
+      </c>
+      <c r="BE9">
+        <v>0.34009099999999998</v>
+      </c>
+      <c r="BF9">
+        <v>0.33114100000000002</v>
+      </c>
+      <c r="BG9">
+        <v>0.33311000000000002</v>
+      </c>
+      <c r="BH9">
+        <v>0.35655999999999999</v>
+      </c>
+      <c r="BI9">
+        <v>0.35402099999999997</v>
+      </c>
+      <c r="BJ9">
+        <v>0.37699100000000002</v>
+      </c>
+      <c r="BK9">
+        <v>0.35808000000000001</v>
+      </c>
+      <c r="BL9">
+        <v>0.37898700000000002</v>
+      </c>
+      <c r="BM9">
+        <v>0.37901400000000002</v>
+      </c>
+      <c r="BN9">
+        <v>0.38200600000000001</v>
+      </c>
+      <c r="BO9">
+        <v>0.39095400000000002</v>
+      </c>
+      <c r="BP9">
+        <v>0.37602200000000002</v>
+      </c>
+      <c r="BQ9">
+        <v>0.38197799999999998</v>
+      </c>
+      <c r="BR9">
+        <v>0.38793499999999997</v>
+      </c>
+      <c r="BS9">
+        <v>0.39196599999999998</v>
+      </c>
+      <c r="BT9">
+        <v>0.39794400000000002</v>
+      </c>
+      <c r="BU9">
+        <v>0.40192600000000001</v>
+      </c>
+      <c r="BV9">
+        <v>0.404891</v>
+      </c>
+      <c r="BW9">
+        <v>0.41190199999999999</v>
+      </c>
+      <c r="BX9">
+        <v>0.416912</v>
+      </c>
+      <c r="BY9">
+        <v>0.417854</v>
+      </c>
+      <c r="BZ9">
+        <v>0.42196099999999997</v>
+      </c>
+      <c r="CA9">
+        <v>0.44281599999999999</v>
+      </c>
+      <c r="CB9">
+        <v>0.44324799999999998</v>
+      </c>
+      <c r="CC9">
+        <v>0.44179000000000002</v>
+      </c>
+      <c r="CD9">
+        <v>0.44578099999999998</v>
+      </c>
+      <c r="CE9">
+        <v>0.53257600000000005</v>
+      </c>
+      <c r="CF9">
+        <v>0.53457100000000002</v>
+      </c>
+      <c r="CG9">
+        <v>0.54318999999999995</v>
+      </c>
+      <c r="CH9">
+        <v>0.54853499999999999</v>
+      </c>
+      <c r="CI9">
+        <v>0.55651399999999995</v>
+      </c>
+      <c r="CJ9">
+        <v>0.55648399999999998</v>
+      </c>
+      <c r="CK9">
+        <v>0.55651200000000001</v>
+      </c>
+      <c r="CL9">
+        <v>0.56446499999999999</v>
+      </c>
+      <c r="CM9">
+        <v>0.57452400000000003</v>
+      </c>
+      <c r="CN9">
+        <v>0.58044799999999996</v>
+      </c>
+      <c r="CO9">
+        <v>0.57657599999999998</v>
+      </c>
+      <c r="CP9">
+        <v>0.58247000000000004</v>
+      </c>
+      <c r="CQ9">
+        <v>0.58355900000000005</v>
+      </c>
+      <c r="CR9">
+        <v>0.592441</v>
+      </c>
+      <c r="CS9">
+        <v>0.59148000000000001</v>
+      </c>
+      <c r="CT9">
+        <v>0.59740300000000002</v>
+      </c>
+      <c r="CU9">
+        <v>0.60142200000000001</v>
+      </c>
+      <c r="CV9">
+        <v>0.606402</v>
+      </c>
+      <c r="CW9">
+        <v>0.61289899999999997</v>
+      </c>
+      <c r="CX9">
+        <v>0.62441100000000005</v>
+      </c>
+      <c r="CY9">
+        <v>0.62397199999999997</v>
+      </c>
+      <c r="CZ9">
+        <v>0.63629500000000005</v>
+      </c>
+      <c r="DA9">
+        <v>0.62632600000000005</v>
+      </c>
+      <c r="DB9">
+        <v>0.64037999999999995</v>
+      </c>
+      <c r="DC9">
+        <v>0.64228700000000005</v>
+      </c>
+      <c r="DD9">
+        <v>0.64932699999999999</v>
+      </c>
+      <c r="DE9">
+        <v>0.64724300000000001</v>
+      </c>
+      <c r="DF9">
+        <v>0.65524800000000005</v>
+      </c>
+      <c r="DG9">
+        <v>0.653254</v>
+      </c>
+      <c r="DH9">
+        <v>0.66428500000000001</v>
+      </c>
+      <c r="DI9">
+        <v>0.67220299999999999</v>
+      </c>
+      <c r="DJ9">
+        <v>0.67821799999999999</v>
+      </c>
+      <c r="DK9">
+        <v>0.671211</v>
+      </c>
+      <c r="DL9">
+        <v>0.68616900000000003</v>
+      </c>
+      <c r="DM9">
+        <v>0.69015499999999996</v>
+      </c>
+      <c r="DN9">
+        <v>0.69614900000000002</v>
+      </c>
+      <c r="DO9">
+        <v>0.69713700000000001</v>
+      </c>
+      <c r="DP9">
+        <v>0.69819900000000001</v>
+      </c>
+      <c r="DQ9">
+        <v>0.71907900000000002</v>
+      </c>
+      <c r="DR9">
+        <v>0.71611999999999998</v>
+      </c>
+      <c r="DS9">
+        <v>0.71815200000000001</v>
+      </c>
+      <c r="DT9">
+        <v>0.72406300000000001</v>
+      </c>
+      <c r="DU9">
+        <v>0.73504199999999997</v>
+      </c>
+      <c r="DV9">
+        <v>0.73301899999999998</v>
+      </c>
+      <c r="DW9">
+        <v>0.73899599999999999</v>
+      </c>
+      <c r="DX9">
+        <v>0.73803099999999999</v>
+      </c>
+      <c r="DY9">
+        <v>0.74733799999999995</v>
+      </c>
+      <c r="DZ9">
+        <v>0.76296200000000003</v>
+      </c>
+      <c r="EA9">
+        <v>0.76498900000000003</v>
+      </c>
+      <c r="EB9">
+        <v>0.77590499999999996</v>
+      </c>
+      <c r="EC9">
+        <v>0.76695800000000003</v>
+      </c>
+      <c r="ED9">
+        <v>0.77156400000000003</v>
+      </c>
+      <c r="EE9">
+        <v>0.77109000000000005</v>
+      </c>
+      <c r="EF9">
+        <v>0.778918</v>
+      </c>
+      <c r="EG9">
+        <v>0.786389</v>
+      </c>
+      <c r="EH9">
+        <v>0.79587300000000005</v>
+      </c>
+      <c r="EI9">
+        <v>0.79684100000000002</v>
+      </c>
+      <c r="EJ9">
+        <v>0.79787300000000005</v>
+      </c>
+      <c r="EK9">
+        <v>0.81039000000000005</v>
+      </c>
+      <c r="EL9">
+        <v>0.80484100000000003</v>
+      </c>
+      <c r="EM9">
+        <v>0.81781400000000004</v>
+      </c>
+      <c r="EN9">
+        <v>0.82790799999999998</v>
+      </c>
+      <c r="EO9">
+        <v>0.82187900000000003</v>
+      </c>
+      <c r="EP9">
+        <v>0.83374400000000004</v>
+      </c>
+      <c r="EQ9">
+        <v>0.83582299999999998</v>
+      </c>
+      <c r="ER9">
+        <v>0.84081700000000004</v>
+      </c>
+      <c r="ES9">
+        <v>0.86234200000000005</v>
+      </c>
+      <c r="ET9">
+        <v>0.85272099999999995</v>
+      </c>
+      <c r="EU9">
+        <v>0.85175400000000001</v>
+      </c>
+      <c r="EV9">
+        <v>0.86777400000000005</v>
+      </c>
+      <c r="EW9">
+        <v>0.87170300000000001</v>
+      </c>
+      <c r="EX9">
+        <v>0.86868000000000001</v>
+      </c>
+      <c r="EY9">
+        <v>0.872699</v>
+      </c>
+      <c r="EZ9">
+        <v>0.88472399999999995</v>
+      </c>
+      <c r="FA9">
+        <v>0.89062399999999997</v>
+      </c>
+      <c r="FB9">
+        <v>0.88663000000000003</v>
+      </c>
+      <c r="FC9">
+        <v>0.89061900000000005</v>
+      </c>
+      <c r="FD9">
+        <v>0.92259999999999998</v>
+      </c>
+      <c r="FE9">
+        <v>0.93550800000000001</v>
+      </c>
+      <c r="FF9">
+        <v>0.91753300000000004</v>
+      </c>
+      <c r="FG9">
+        <v>0.91855200000000004</v>
+      </c>
+      <c r="FH9">
+        <v>0.93649700000000002</v>
+      </c>
+      <c r="FI9">
+        <v>0.92752999999999997</v>
+      </c>
+      <c r="FJ9">
+        <v>0.93448200000000003</v>
+      </c>
+      <c r="FK9">
+        <v>0.95440100000000005</v>
+      </c>
+      <c r="FL9">
+        <v>0.942492</v>
+      </c>
+      <c r="FM9">
+        <v>0.95144099999999998</v>
+      </c>
+      <c r="FN9">
+        <v>0.95743900000000004</v>
+      </c>
+      <c r="FO9">
+        <v>0.97543400000000002</v>
+      </c>
+      <c r="FP9">
+        <v>0.97140300000000002</v>
+      </c>
+      <c r="FQ9">
+        <v>0.97936000000000001</v>
+      </c>
+      <c r="FR9">
+        <v>0.97043699999999999</v>
+      </c>
+      <c r="FS9">
+        <v>0.98436800000000002</v>
+      </c>
+      <c r="FT9">
+        <v>1.1728700000000001</v>
+      </c>
+      <c r="FU9">
+        <v>1.17686</v>
+      </c>
+      <c r="FV9">
+        <v>1.17747</v>
+      </c>
+      <c r="FW9">
+        <v>1.1948099999999999</v>
+      </c>
+      <c r="FX9">
+        <v>1.18387</v>
+      </c>
+      <c r="FY9">
+        <v>1.1848399999999999</v>
+      </c>
+      <c r="FZ9">
+        <v>1.1894</v>
+      </c>
+      <c r="GA9">
+        <v>1.20719</v>
+      </c>
+      <c r="GB9">
+        <v>1.2017500000000001</v>
+      </c>
+      <c r="GC9">
+        <v>1.2127600000000001</v>
+      </c>
+      <c r="GD9">
+        <v>1.2208300000000001</v>
+      </c>
+      <c r="GE9">
+        <v>1.2176899999999999</v>
+      </c>
+      <c r="GF9">
+        <v>1.2326900000000001</v>
+      </c>
+      <c r="GG9">
+        <v>1.2406900000000001</v>
+      </c>
+      <c r="GH9">
+        <v>1.2233400000000001</v>
+      </c>
+      <c r="GI9">
+        <v>1.22576</v>
+      </c>
+      <c r="GJ9">
+        <v>1.2354499999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:192" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>10000</v>
+      </c>
+      <c r="C11">
+        <v>11000</v>
+      </c>
+      <c r="D11">
+        <v>12000</v>
+      </c>
+      <c r="E11">
+        <v>13000</v>
+      </c>
+      <c r="F11">
+        <v>14000</v>
+      </c>
+      <c r="G11">
+        <v>15000</v>
+      </c>
+      <c r="H11">
+        <v>16000</v>
+      </c>
+      <c r="I11">
+        <v>17000</v>
+      </c>
+      <c r="J11">
+        <v>18000</v>
+      </c>
+      <c r="K11">
+        <v>19000</v>
+      </c>
+      <c r="L11">
+        <v>20000</v>
+      </c>
+      <c r="M11">
+        <v>21000</v>
+      </c>
+      <c r="N11">
+        <v>22000</v>
+      </c>
+      <c r="O11">
+        <v>23000</v>
+      </c>
+      <c r="P11">
+        <v>24000</v>
+      </c>
+      <c r="Q11">
+        <v>25000</v>
+      </c>
+      <c r="R11">
+        <v>26000</v>
+      </c>
+      <c r="S11">
+        <v>27000</v>
+      </c>
+      <c r="T11">
+        <v>28000</v>
+      </c>
+      <c r="U11">
+        <v>29000</v>
+      </c>
+      <c r="V11">
+        <v>30000</v>
+      </c>
+      <c r="W11">
+        <v>31000</v>
+      </c>
+      <c r="X11">
+        <v>32000</v>
+      </c>
+      <c r="Y11">
+        <v>33000</v>
+      </c>
+      <c r="Z11">
+        <v>34000</v>
+      </c>
+      <c r="AA11">
+        <v>35000</v>
+      </c>
+      <c r="AB11">
+        <v>36000</v>
+      </c>
+      <c r="AC11">
+        <v>37000</v>
+      </c>
+      <c r="AD11">
+        <v>38000</v>
+      </c>
+      <c r="AE11">
+        <v>39000</v>
+      </c>
+      <c r="AF11">
+        <v>40000</v>
+      </c>
+      <c r="AG11">
+        <v>41000</v>
+      </c>
+      <c r="AH11">
+        <v>42000</v>
+      </c>
+      <c r="AI11">
+        <v>43000</v>
+      </c>
+      <c r="AJ11">
+        <v>44000</v>
+      </c>
+      <c r="AK11">
+        <v>45000</v>
+      </c>
+      <c r="AL11">
+        <v>46000</v>
+      </c>
+      <c r="AM11">
+        <v>47000</v>
+      </c>
+      <c r="AN11">
+        <v>48000</v>
+      </c>
+      <c r="AO11">
+        <v>49000</v>
+      </c>
+      <c r="AP11">
+        <v>50000</v>
+      </c>
+      <c r="AQ11">
+        <v>51000</v>
+      </c>
+      <c r="AR11">
+        <v>52000</v>
+      </c>
+      <c r="AS11">
+        <v>53000</v>
+      </c>
+      <c r="AT11">
+        <v>54000</v>
+      </c>
+      <c r="AU11">
+        <v>55000</v>
+      </c>
+      <c r="AV11">
+        <v>56000</v>
+      </c>
+      <c r="AW11">
+        <v>57000</v>
+      </c>
+      <c r="AX11">
+        <v>58000</v>
+      </c>
+      <c r="AY11">
+        <v>59000</v>
+      </c>
+      <c r="AZ11">
+        <v>60000</v>
+      </c>
+      <c r="BA11">
+        <v>61000</v>
+      </c>
+      <c r="BB11">
+        <v>62000</v>
+      </c>
+      <c r="BC11">
+        <v>63000</v>
+      </c>
+      <c r="BD11">
+        <v>64000</v>
+      </c>
+      <c r="BE11">
+        <v>65000</v>
+      </c>
+      <c r="BF11">
+        <v>66000</v>
+      </c>
+      <c r="BG11">
+        <v>67000</v>
+      </c>
+      <c r="BH11">
+        <v>68000</v>
+      </c>
+      <c r="BI11">
+        <v>69000</v>
+      </c>
+      <c r="BJ11">
+        <v>70000</v>
+      </c>
+      <c r="BK11">
+        <v>71000</v>
+      </c>
+      <c r="BL11">
+        <v>72000</v>
+      </c>
+      <c r="BM11">
+        <v>73000</v>
+      </c>
+      <c r="BN11">
+        <v>74000</v>
+      </c>
+      <c r="BO11">
+        <v>75000</v>
+      </c>
+      <c r="BP11">
+        <v>76000</v>
+      </c>
+      <c r="BQ11">
+        <v>77000</v>
+      </c>
+      <c r="BR11">
+        <v>78000</v>
+      </c>
+      <c r="BS11">
+        <v>79000</v>
+      </c>
+      <c r="BT11">
+        <v>80000</v>
+      </c>
+      <c r="BU11">
+        <v>81000</v>
+      </c>
+      <c r="BV11">
+        <v>82000</v>
+      </c>
+      <c r="BW11">
+        <v>83000</v>
+      </c>
+      <c r="BX11">
+        <v>84000</v>
+      </c>
+      <c r="BY11">
+        <v>85000</v>
+      </c>
+      <c r="BZ11">
+        <v>86000</v>
+      </c>
+      <c r="CA11">
+        <v>87000</v>
+      </c>
+      <c r="CB11">
+        <v>88000</v>
+      </c>
+      <c r="CC11">
+        <v>89000</v>
+      </c>
+      <c r="CD11">
+        <v>90000</v>
+      </c>
+      <c r="CE11">
+        <v>91000</v>
+      </c>
+      <c r="CF11">
+        <v>92000</v>
+      </c>
+      <c r="CG11">
+        <v>93000</v>
+      </c>
+      <c r="CH11">
+        <v>94000</v>
+      </c>
+      <c r="CI11">
+        <v>95000</v>
+      </c>
+      <c r="CJ11">
+        <v>96000</v>
+      </c>
+      <c r="CK11">
+        <v>97000</v>
+      </c>
+      <c r="CL11">
+        <v>98000</v>
+      </c>
+      <c r="CM11">
+        <v>99000</v>
+      </c>
+      <c r="CN11">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:192" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1.0970799999999999E-2</v>
+      </c>
+      <c r="C12">
+        <v>1.0970300000000001E-2</v>
+      </c>
+      <c r="D12">
+        <v>9.9732999999999992E-3</v>
+      </c>
+      <c r="E12">
+        <v>1.09713E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.0998300000000001E-2</v>
+      </c>
+      <c r="G12">
+        <v>1.8976799999999999E-2</v>
+      </c>
+      <c r="H12">
+        <v>1.89771E-2</v>
+      </c>
+      <c r="I12">
+        <v>1.8915499999999998E-2</v>
+      </c>
+      <c r="J12">
+        <v>1.8950499999999999E-2</v>
+      </c>
+      <c r="K12">
+        <v>1.8949000000000001E-2</v>
+      </c>
+      <c r="L12">
+        <v>1.9946999999999999E-2</v>
+      </c>
+      <c r="M12">
+        <v>2.09442E-2</v>
+      </c>
+      <c r="N12">
+        <v>2.0916299999999999E-2</v>
+      </c>
+      <c r="O12">
+        <v>2.09435E-2</v>
+      </c>
+      <c r="P12">
+        <v>2.0943799999999999E-2</v>
+      </c>
+      <c r="Q12">
+        <v>2.09448E-2</v>
+      </c>
+      <c r="R12">
+        <v>2.0949200000000001E-2</v>
+      </c>
+      <c r="S12">
+        <v>2.1943600000000001E-2</v>
+      </c>
+      <c r="T12">
+        <v>2.1941800000000001E-2</v>
+      </c>
+      <c r="U12">
+        <v>2.1942199999999999E-2</v>
+      </c>
+      <c r="V12">
+        <v>2.2939399999999999E-2</v>
+      </c>
+      <c r="W12">
+        <v>2.29111E-2</v>
+      </c>
+      <c r="X12">
+        <v>2.3935700000000001E-2</v>
+      </c>
+      <c r="Y12">
+        <v>2.29632E-2</v>
+      </c>
+      <c r="Z12">
+        <v>3.9893499999999998E-2</v>
+      </c>
+      <c r="AA12">
+        <v>4.18597E-2</v>
+      </c>
+      <c r="AB12">
+        <v>4.0891799999999999E-2</v>
+      </c>
+      <c r="AC12">
+        <v>4.1980700000000003E-2</v>
+      </c>
+      <c r="AD12">
+        <v>4.2884800000000001E-2</v>
+      </c>
+      <c r="AE12">
+        <v>4.1860599999999998E-2</v>
+      </c>
+      <c r="AF12">
+        <v>4.1887899999999999E-2</v>
+      </c>
+      <c r="AG12">
+        <v>4.1915399999999998E-2</v>
+      </c>
+      <c r="AH12">
+        <v>4.2886399999999998E-2</v>
+      </c>
+      <c r="AI12">
+        <v>4.2856900000000003E-2</v>
+      </c>
+      <c r="AJ12">
+        <v>4.2859099999999997E-2</v>
+      </c>
+      <c r="AK12">
+        <v>4.28855E-2</v>
+      </c>
+      <c r="AL12">
+        <v>4.2889299999999998E-2</v>
+      </c>
+      <c r="AM12">
+        <v>4.6870799999999997E-2</v>
+      </c>
+      <c r="AN12">
+        <v>7.0806900000000006E-2</v>
+      </c>
+      <c r="AO12">
+        <v>6.98154E-2</v>
+      </c>
+      <c r="AP12">
+        <v>7.1780399999999994E-2</v>
+      </c>
+      <c r="AQ12">
+        <v>6.98405E-2</v>
+      </c>
+      <c r="AR12">
+        <v>6.9841100000000003E-2</v>
+      </c>
+      <c r="AS12">
+        <v>7.1788500000000005E-2</v>
+      </c>
+      <c r="AT12">
+        <v>7.1836499999999998E-2</v>
+      </c>
+      <c r="AU12">
+        <v>7.28047E-2</v>
+      </c>
+      <c r="AV12">
+        <v>7.0782399999999995E-2</v>
+      </c>
+      <c r="AW12">
+        <v>7.1779700000000002E-2</v>
+      </c>
+      <c r="AX12">
+        <v>7.1837799999999993E-2</v>
+      </c>
+      <c r="AY12">
+        <v>7.2785600000000006E-2</v>
+      </c>
+      <c r="AZ12">
+        <v>7.2805300000000003E-2</v>
+      </c>
+      <c r="BA12">
+        <v>7.2803999999999994E-2</v>
+      </c>
+      <c r="BB12">
+        <v>7.3831499999999994E-2</v>
+      </c>
+      <c r="BC12">
+        <v>7.2834099999999999E-2</v>
+      </c>
+      <c r="BD12">
+        <v>7.2804300000000002E-2</v>
+      </c>
+      <c r="BE12">
+        <v>7.3802300000000001E-2</v>
+      </c>
+      <c r="BF12">
+        <v>7.3802400000000004E-2</v>
+      </c>
+      <c r="BG12">
+        <v>7.4826400000000001E-2</v>
+      </c>
+      <c r="BH12">
+        <v>7.6794699999999994E-2</v>
+      </c>
+      <c r="BI12">
+        <v>7.5800099999999995E-2</v>
+      </c>
+      <c r="BJ12">
+        <v>7.5797400000000001E-2</v>
+      </c>
+      <c r="BK12">
+        <v>7.4798900000000001E-2</v>
+      </c>
+      <c r="BL12">
+        <v>7.7797099999999994E-2</v>
+      </c>
+      <c r="BM12">
+        <v>7.7816800000000005E-2</v>
+      </c>
+      <c r="BN12">
+        <v>7.5797199999999995E-2</v>
+      </c>
+      <c r="BO12">
+        <v>7.57969E-2</v>
+      </c>
+      <c r="BP12">
+        <v>7.5797299999999998E-2</v>
+      </c>
+      <c r="BQ12">
+        <v>7.5796600000000006E-2</v>
+      </c>
+      <c r="BR12">
+        <v>7.5824500000000003E-2</v>
+      </c>
+      <c r="BS12">
+        <v>7.8789600000000001E-2</v>
+      </c>
+      <c r="BT12">
+        <v>7.6821700000000007E-2</v>
+      </c>
+      <c r="BU12">
+        <v>7.9815800000000006E-2</v>
+      </c>
+      <c r="BV12">
+        <v>7.8789100000000001E-2</v>
+      </c>
+      <c r="BW12">
+        <v>7.8759399999999993E-2</v>
+      </c>
+      <c r="BX12">
+        <v>7.8825500000000007E-2</v>
+      </c>
+      <c r="BY12">
+        <v>7.9786300000000004E-2</v>
+      </c>
+      <c r="BZ12">
+        <v>8.0782499999999993E-2</v>
+      </c>
+      <c r="CA12">
+        <v>7.8793100000000005E-2</v>
+      </c>
+      <c r="CB12">
+        <v>7.8781299999999999E-2</v>
+      </c>
+      <c r="CC12">
+        <v>8.0840800000000004E-2</v>
+      </c>
+      <c r="CD12">
+        <v>8.3776400000000001E-2</v>
+      </c>
+      <c r="CE12">
+        <v>8.0813899999999994E-2</v>
+      </c>
+      <c r="CF12">
+        <v>8.1753599999999996E-2</v>
+      </c>
+      <c r="CG12">
+        <v>8.1754199999999999E-2</v>
+      </c>
+      <c r="CH12">
+        <v>8.0753099999999994E-2</v>
+      </c>
+      <c r="CI12">
+        <v>8.1753500000000007E-2</v>
+      </c>
+      <c r="CJ12">
+        <v>8.2778900000000002E-2</v>
+      </c>
+      <c r="CK12">
+        <v>8.2752099999999995E-2</v>
+      </c>
+      <c r="CL12">
+        <v>8.1788799999999995E-2</v>
+      </c>
+      <c r="CM12">
+        <v>8.3749500000000004E-2</v>
+      </c>
+      <c r="CN12">
+        <v>8.2752199999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:192" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>6.9809E-3</v>
+      </c>
+      <c r="C13">
+        <v>7.9787E-3</v>
+      </c>
+      <c r="D13">
+        <v>7.9789000000000006E-3</v>
+      </c>
+      <c r="E13">
+        <v>9.9734000000000003E-3</v>
+      </c>
+      <c r="F13">
+        <v>9.9735999999999991E-3</v>
+      </c>
+      <c r="G13">
+        <v>1.09709E-2</v>
+      </c>
+      <c r="H13">
+        <v>1.09707E-2</v>
+      </c>
+      <c r="I13">
+        <v>1.29657E-2</v>
+      </c>
+      <c r="J13">
+        <v>1.29658E-2</v>
+      </c>
+      <c r="K13">
+        <v>1.3962799999999999E-2</v>
+      </c>
+      <c r="L13">
+        <v>1.49602E-2</v>
+      </c>
+      <c r="M13">
+        <v>1.4959699999999999E-2</v>
+      </c>
+      <c r="N13">
+        <v>1.5959299999999999E-2</v>
+      </c>
+      <c r="O13">
+        <v>1.6953200000000002E-2</v>
+      </c>
+      <c r="P13">
+        <v>1.7924099999999998E-2</v>
+      </c>
+      <c r="Q13">
+        <v>1.7954500000000002E-2</v>
+      </c>
+      <c r="R13">
+        <v>1.9946700000000001E-2</v>
+      </c>
+      <c r="S13">
+        <v>1.9945999999999998E-2</v>
+      </c>
+      <c r="T13">
+        <v>1.9973500000000002E-2</v>
+      </c>
+      <c r="U13">
+        <v>2.0971199999999999E-2</v>
+      </c>
+      <c r="V13">
+        <v>2.1942400000000001E-2</v>
+      </c>
+      <c r="W13">
+        <v>2.29398E-2</v>
+      </c>
+      <c r="X13">
+        <v>2.29386E-2</v>
+      </c>
+      <c r="Y13">
+        <v>2.3935600000000001E-2</v>
+      </c>
+      <c r="Z13">
+        <v>2.5930700000000001E-2</v>
+      </c>
+      <c r="AA13">
+        <v>2.6927900000000001E-2</v>
+      </c>
+      <c r="AB13">
+        <v>2.69286E-2</v>
+      </c>
+      <c r="AC13">
+        <v>2.7925499999999999E-2</v>
+      </c>
+      <c r="AD13">
+        <v>2.7952500000000002E-2</v>
+      </c>
+      <c r="AE13">
+        <v>3.0949500000000001E-2</v>
+      </c>
+      <c r="AF13">
+        <v>2.9921199999999998E-2</v>
+      </c>
+      <c r="AG13">
+        <v>3.1943100000000002E-2</v>
+      </c>
+      <c r="AH13">
+        <v>3.1914600000000001E-2</v>
+      </c>
+      <c r="AI13">
+        <v>3.2911799999999998E-2</v>
+      </c>
+      <c r="AJ13">
+        <v>3.2912299999999999E-2</v>
+      </c>
+      <c r="AK13">
+        <v>3.4905800000000001E-2</v>
+      </c>
+      <c r="AL13">
+        <v>3.5904400000000003E-2</v>
+      </c>
+      <c r="AM13">
+        <v>3.5903400000000002E-2</v>
+      </c>
+      <c r="AN13">
+        <v>3.5933300000000001E-2</v>
+      </c>
+      <c r="AO13">
+        <v>3.7899799999999997E-2</v>
+      </c>
+      <c r="AP13">
+        <v>3.7865999999999997E-2</v>
+      </c>
+      <c r="AQ13">
+        <v>3.8898299999999997E-2</v>
+      </c>
+      <c r="AR13">
+        <v>3.9896599999999997E-2</v>
+      </c>
+      <c r="AS13">
+        <v>4.0892999999999999E-2</v>
+      </c>
+      <c r="AT13">
+        <v>4.0890700000000002E-2</v>
+      </c>
+      <c r="AU13">
+        <v>4.18602E-2</v>
+      </c>
+      <c r="AV13">
+        <v>4.2854900000000001E-2</v>
+      </c>
+      <c r="AW13">
+        <v>4.4907099999999998E-2</v>
+      </c>
+      <c r="AX13">
+        <v>4.4879200000000001E-2</v>
+      </c>
+      <c r="AY13">
+        <v>4.5852799999999999E-2</v>
+      </c>
+      <c r="AZ13">
+        <v>4.5902900000000003E-2</v>
+      </c>
+      <c r="BA13">
+        <v>4.7841300000000003E-2</v>
+      </c>
+      <c r="BB13">
+        <v>4.7871799999999999E-2</v>
+      </c>
+      <c r="BC13">
+        <v>4.8904799999999998E-2</v>
+      </c>
+      <c r="BD13">
+        <v>4.9864499999999999E-2</v>
+      </c>
+      <c r="BE13">
+        <v>4.9866500000000001E-2</v>
+      </c>
+      <c r="BF13">
+        <v>5.0861499999999997E-2</v>
+      </c>
+      <c r="BG13">
+        <v>5.1830899999999999E-2</v>
+      </c>
+      <c r="BH13">
+        <v>5.2885799999999997E-2</v>
+      </c>
+      <c r="BI13">
+        <v>5.2958699999999997E-2</v>
+      </c>
+      <c r="BJ13">
+        <v>5.5851499999999998E-2</v>
+      </c>
+      <c r="BK13">
+        <v>5.48253E-2</v>
+      </c>
+      <c r="BL13">
+        <v>5.5846800000000002E-2</v>
+      </c>
+      <c r="BM13">
+        <v>5.6820000000000002E-2</v>
+      </c>
+      <c r="BN13">
+        <v>5.8843199999999998E-2</v>
+      </c>
+      <c r="BO13">
+        <v>5.7816300000000001E-2</v>
+      </c>
+      <c r="BP13">
+        <v>5.8846200000000001E-2</v>
+      </c>
+      <c r="BQ13">
+        <v>5.9834499999999999E-2</v>
+      </c>
+      <c r="BR13">
+        <v>6.0810299999999998E-2</v>
+      </c>
+      <c r="BS13">
+        <v>6.1861600000000003E-2</v>
+      </c>
+      <c r="BT13">
+        <v>6.2804499999999999E-2</v>
+      </c>
+      <c r="BU13">
+        <v>6.3857499999999998E-2</v>
+      </c>
+      <c r="BV13">
+        <v>6.4853999999999995E-2</v>
+      </c>
+      <c r="BW13">
+        <v>6.4826700000000001E-2</v>
+      </c>
+      <c r="BX13">
+        <v>6.4854200000000001E-2</v>
+      </c>
+      <c r="BY13">
+        <v>6.6822000000000006E-2</v>
+      </c>
+      <c r="BZ13">
+        <v>6.6822400000000004E-2</v>
+      </c>
+      <c r="CA13">
+        <v>6.8816500000000003E-2</v>
+      </c>
+      <c r="CB13">
+        <v>6.9813799999999995E-2</v>
+      </c>
+      <c r="CC13">
+        <v>7.1869500000000003E-2</v>
+      </c>
+      <c r="CD13">
+        <v>7.0840200000000006E-2</v>
+      </c>
+      <c r="CE13">
+        <v>7.2805800000000004E-2</v>
+      </c>
+      <c r="CF13">
+        <v>7.28356E-2</v>
+      </c>
+      <c r="CG13">
+        <v>7.47728E-2</v>
+      </c>
+      <c r="CH13">
+        <v>7.48003E-2</v>
+      </c>
+      <c r="CI13">
+        <v>7.5798400000000002E-2</v>
+      </c>
+      <c r="CJ13">
+        <v>7.6795199999999994E-2</v>
+      </c>
+      <c r="CK13">
+        <v>7.6795100000000005E-2</v>
+      </c>
+      <c r="CL13">
+        <v>7.6794600000000005E-2</v>
+      </c>
+      <c r="CM13">
+        <v>7.7792E-2</v>
+      </c>
+      <c r="CN13">
+        <v>8.0784999999999996E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:192" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>2.9916000000000001E-3</v>
+      </c>
+      <c r="C14">
+        <v>2.9919999999999999E-3</v>
+      </c>
+      <c r="D14">
+        <v>3.9892E-3</v>
+      </c>
+      <c r="E14">
+        <v>3.9893000000000003E-3</v>
+      </c>
+      <c r="F14">
+        <v>4.9877999999999997E-3</v>
+      </c>
+      <c r="G14">
+        <v>4.9867000000000002E-3</v>
+      </c>
+      <c r="H14">
+        <v>4.9865999999999999E-3</v>
+      </c>
+      <c r="I14">
+        <v>5.9845000000000002E-3</v>
+      </c>
+      <c r="J14">
+        <v>5.9838000000000001E-3</v>
+      </c>
+      <c r="K14">
+        <v>6.9813000000000002E-3</v>
+      </c>
+      <c r="L14">
+        <v>6.9810999999999996E-3</v>
+      </c>
+      <c r="M14">
+        <v>6.9820999999999998E-3</v>
+      </c>
+      <c r="N14">
+        <v>7.9784999999999995E-3</v>
+      </c>
+      <c r="O14">
+        <v>7.9787E-3</v>
+      </c>
+      <c r="P14">
+        <v>8.9762999999999996E-3</v>
+      </c>
+      <c r="Q14">
+        <v>8.9759999999999996E-3</v>
+      </c>
+      <c r="R14">
+        <v>8.9759000000000002E-3</v>
+      </c>
+      <c r="S14">
+        <v>9.9734999999999997E-3</v>
+      </c>
+      <c r="T14">
+        <v>1.09707E-2</v>
+      </c>
+      <c r="U14">
+        <v>9.9743000000000002E-3</v>
+      </c>
+      <c r="V14">
+        <v>1.09706E-2</v>
+      </c>
+      <c r="W14">
+        <v>1.19679E-2</v>
+      </c>
+      <c r="X14">
+        <v>1.09712E-2</v>
+      </c>
+      <c r="Y14">
+        <v>1.1967999999999999E-2</v>
+      </c>
+      <c r="Z14">
+        <v>1.1967999999999999E-2</v>
+      </c>
+      <c r="AA14">
+        <v>1.1967999999999999E-2</v>
+      </c>
+      <c r="AB14">
+        <v>1.29651E-2</v>
+      </c>
+      <c r="AC14">
+        <v>1.3962799999999999E-2</v>
+      </c>
+      <c r="AD14">
+        <v>1.49599E-2</v>
+      </c>
+      <c r="AE14">
+        <v>1.49608E-2</v>
+      </c>
+      <c r="AF14">
+        <v>1.4986899999999999E-2</v>
+      </c>
+      <c r="AG14">
+        <v>1.49873E-2</v>
+      </c>
+      <c r="AH14">
+        <v>1.49867E-2</v>
+      </c>
+      <c r="AI14">
+        <v>1.4986599999999999E-2</v>
+      </c>
+      <c r="AJ14">
+        <v>1.59843E-2</v>
+      </c>
+      <c r="AK14">
+        <v>1.5956700000000001E-2</v>
+      </c>
+      <c r="AL14">
+        <v>1.57745E-2</v>
+      </c>
+      <c r="AM14">
+        <v>1.69546E-2</v>
+      </c>
+      <c r="AN14">
+        <v>1.6981699999999999E-2</v>
+      </c>
+      <c r="AO14">
+        <v>1.69546E-2</v>
+      </c>
+      <c r="AP14">
+        <v>1.69552E-2</v>
+      </c>
+      <c r="AQ14">
+        <v>1.79794E-2</v>
+      </c>
+      <c r="AR14">
+        <v>1.7978899999999999E-2</v>
+      </c>
+      <c r="AS14">
+        <v>1.8976400000000001E-2</v>
+      </c>
+      <c r="AT14">
+        <v>1.9977100000000001E-2</v>
+      </c>
+      <c r="AU14">
+        <v>2.0944000000000001E-2</v>
+      </c>
+      <c r="AV14">
+        <v>1.99755E-2</v>
+      </c>
+      <c r="AW14">
+        <v>2.1969499999999999E-2</v>
+      </c>
+      <c r="AX14">
+        <v>2.09705E-2</v>
+      </c>
+      <c r="AY14">
+        <v>2.0968799999999999E-2</v>
+      </c>
+      <c r="AZ14">
+        <v>2.1941200000000001E-2</v>
+      </c>
+      <c r="BA14">
+        <v>2.1941499999999999E-2</v>
+      </c>
+      <c r="BB14">
+        <v>2.2942199999999999E-2</v>
+      </c>
+      <c r="BC14">
+        <v>2.3936099999999998E-2</v>
+      </c>
+      <c r="BD14">
+        <v>2.3936300000000001E-2</v>
+      </c>
+      <c r="BE14">
+        <v>2.3963000000000002E-2</v>
+      </c>
+      <c r="BF14">
+        <v>2.39632E-2</v>
+      </c>
+      <c r="BG14">
+        <v>2.49337E-2</v>
+      </c>
+      <c r="BH14">
+        <v>2.39632E-2</v>
+      </c>
+      <c r="BI14">
+        <v>2.6927E-2</v>
+      </c>
+      <c r="BJ14">
+        <v>2.5930700000000001E-2</v>
+      </c>
+      <c r="BK14">
+        <v>2.4965000000000001E-2</v>
+      </c>
+      <c r="BL14">
+        <v>2.6955300000000001E-2</v>
+      </c>
+      <c r="BM14">
+        <v>2.6928000000000001E-2</v>
+      </c>
+      <c r="BN14">
+        <v>2.6955199999999999E-2</v>
+      </c>
+      <c r="BO14">
+        <v>2.69281E-2</v>
+      </c>
+      <c r="BP14">
+        <v>2.69567E-2</v>
+      </c>
+      <c r="BQ14">
+        <v>2.7935000000000001E-2</v>
+      </c>
+      <c r="BR14">
+        <v>2.7901700000000002E-2</v>
+      </c>
+      <c r="BS14">
+        <v>2.7952500000000002E-2</v>
+      </c>
+      <c r="BT14">
+        <v>2.9920700000000001E-2</v>
+      </c>
+      <c r="BU14">
+        <v>2.895E-2</v>
+      </c>
+      <c r="BV14">
+        <v>2.9895000000000001E-2</v>
+      </c>
+      <c r="BW14">
+        <v>2.9919999999999999E-2</v>
+      </c>
+      <c r="BX14">
+        <v>2.9949099999999999E-2</v>
+      </c>
+      <c r="BY14">
+        <v>3.0950100000000001E-2</v>
+      </c>
+      <c r="BZ14">
+        <v>3.09427E-2</v>
+      </c>
+      <c r="CA14">
+        <v>3.0917699999999999E-2</v>
+      </c>
+      <c r="CB14">
+        <v>3.8902699999999998E-2</v>
+      </c>
+      <c r="CC14">
+        <v>3.1941700000000003E-2</v>
+      </c>
+      <c r="CD14">
+        <v>3.1915100000000002E-2</v>
+      </c>
+      <c r="CE14">
+        <v>3.3909099999999998E-2</v>
+      </c>
+      <c r="CF14">
+        <v>3.2939499999999997E-2</v>
+      </c>
+      <c r="CG14">
+        <v>3.28805E-2</v>
+      </c>
+      <c r="CH14">
+        <v>3.3909700000000001E-2</v>
+      </c>
+      <c r="CI14">
+        <v>3.2912400000000001E-2</v>
+      </c>
+      <c r="CJ14">
+        <v>3.3909700000000001E-2</v>
+      </c>
+      <c r="CK14">
+        <v>3.6928900000000001E-2</v>
+      </c>
+      <c r="CL14">
+        <v>3.4906800000000002E-2</v>
+      </c>
+      <c r="CM14">
+        <v>3.59318E-2</v>
+      </c>
+      <c r="CN14">
+        <v>3.6901999999999997E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/research.xlsx
+++ b/research.xlsx
@@ -5,22 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\sursu\cpp-dictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\sursu\cpp-hashtable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A800A6CB-3C30-4B43-B5E5-7BF72DE648A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EE5814-6C59-4A14-AE02-13286561B9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18195" yWindow="3885" windowWidth="15015" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>My Dictionary</t>
   </si>
@@ -29,18 +32,6 @@
   </si>
   <si>
     <t>Unordered STL map</t>
-  </si>
-  <si>
-    <t>Сумма</t>
-  </si>
-  <si>
-    <t>Среднее</t>
-  </si>
-  <si>
-    <t>С нарастающим итогом</t>
-  </si>
-  <si>
-    <t>Количество</t>
   </si>
 </sst>
 </file>
@@ -548,7 +539,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6553,6 +6544,2069 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Зависимость времени от числа вставляемых элементов</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]test!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>My Dictionary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]test!$B$1:$CN$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>260000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>270000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>290000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>330000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>340000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>370000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>380000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>390000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>410000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>420000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>430000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>440000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>460000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>470000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>480000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>490000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>510000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>520000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>530000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>540000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>560000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>570000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>580000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>590000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>610000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>620000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>630000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>660000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>670000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>680000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>690000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>710000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>720000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>730000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>740000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>760000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>770000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>780000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>790000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>810000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>820000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>830000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>840000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>860000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>870000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>880000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>890000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>910000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>920000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>930000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>940000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>950000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>960000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>970000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>980000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>990000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]test!$B$2:$CN$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>3.1249000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9651000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1253999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6565499999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5626000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1250999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5621E-10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1250999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1246000000000003E-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3953E-10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1247999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1246000000000003E-10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5624E-10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5626000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5624E-10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5623000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.9999699999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.1247999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1250999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1249000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1252000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.1253000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5625E-10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5628E-10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.1252000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5628E-10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.128E-10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.5625E-10</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.5625E-10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.1277E-10</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.1244000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.1247000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.1247999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.1246000000000003E-10</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.5621E-10</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.6871900000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5625E-10</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.1249000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.5625E-10</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.1247000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.5625E-10</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.5624E-10</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.1249000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.5625E-10</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.5626000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.1250999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.1247999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.1218999999999998E-10</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.5624E-10</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.1217000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.5625E-10</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.1250999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.1249000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.1247999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.5625E-10</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.5625E-10</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.5625E-10</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.5629999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.128E-10</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.1220000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.1220000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.1249000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.5625E-10</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.1249000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9842-40E0-AA13-5DE04A16808F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]test!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>STL map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]test!$B$1:$CN$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>260000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>270000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>290000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>330000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>340000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>370000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>380000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>390000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>410000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>420000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>430000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>440000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>460000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>470000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>480000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>490000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>510000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>520000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>530000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>540000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>560000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>570000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>580000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>590000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>610000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>620000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>630000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>660000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>670000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>680000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>690000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>710000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>720000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>730000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>740000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>760000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>770000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>780000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>790000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>810000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>820000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>830000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>840000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>860000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>870000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>880000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>890000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>910000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>920000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>930000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>940000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>950000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>960000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>970000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>980000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>990000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]test!$B$3:$CN$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>3.1252000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1220000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6871000000000003E-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6874999999999996E-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6841000000000004E-10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6874999999999996E-10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1238000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6874999999999996E-10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6874999999999996E-10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1249000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6874999999999996E-10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6873999999999998E-10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6907000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6876000000000004E-10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1249000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6906000000000003E-10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1247000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1279000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.6874999999999996E-10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.6876000000000004E-10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.1244999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.6874999999999996E-10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.6874999999999996E-10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1250999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.6905000000000005E-10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.6876000000000004E-10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1247999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.6873999999999998E-10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.6874999999999996E-10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.1217000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1249000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1250999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.6905000000000005E-10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.1282000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.1218999999999998E-10</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.1250999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.1249000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.6874999999999996E-10</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.6876000000000004E-10</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.1220000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.6874999999999996E-10</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.6860000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6876000000000004E-10</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.1218E-10</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.1279000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.1253000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.1249000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.1253999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.1249000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.6877000000000003E-10</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.6873999999999998E-10</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.6845999999999995E-10</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.1252000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.1282000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.6872999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.1218999999999998E-10</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.6876000000000004E-10</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.6874999999999996E-10</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.6877000000000003E-10</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.6874999999999996E-10</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.6873999999999998E-10</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.1250999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.6876000000000004E-10</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.6874999999999996E-10</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.1246000000000003E-10</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.6876000000000004E-10</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.6874999999999996E-10</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.1249000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.1252000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.6896E-10</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.6845999999999995E-10</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.6874999999999996E-10</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.6879999999999997E-10</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.6874999999999996E-10</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.1247000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.6876000000000004E-10</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.6879999999999997E-10</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.6873999999999998E-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9842-40E0-AA13-5DE04A16808F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]test!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unordered STL map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]test!$B$1:$CN$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>260000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>270000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>290000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>330000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>340000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>370000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>380000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>390000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>410000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>420000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>430000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>440000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>460000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>470000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>480000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>490000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>510000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>520000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>530000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>540000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>560000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>570000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>580000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>590000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>610000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>620000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>630000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>640000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>660000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>670000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>680000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>690000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>710000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>720000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>730000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>740000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>760000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>770000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>780000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>790000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>810000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>820000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>830000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>840000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>860000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>870000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>880000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>890000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>910000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>920000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>930000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>940000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>950000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>960000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>970000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>980000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>990000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]test!$B$4:$CN$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>1.5622E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1250999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5619999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1280999999999998E-10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1249000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.128E-10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5625E-10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1250999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5625E-10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5625E-10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5616000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1250999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6878999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1249000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.1246000000000003E-10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5626000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5626000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.1259999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5624E-10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.1252000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.1217000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5625E-10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1250999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.5624E-10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.1217000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5626000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5625E-10</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.1252000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.1250999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.1247999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.5625E-10</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.2502999999999996E-10</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.5625E-10</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5626000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.1250999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.1250999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.5626000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.5625E-10</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.5624E-10</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.5626000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.1244999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.1265E-10</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.1252000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.1247999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.1241000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.5621E-10</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.1249000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.1249000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.5626000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5623000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.5625E-10</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.5625E-10</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.128E-10</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.1265E-10</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.5626000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.1280999999999998E-10</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.1252000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5607999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.1250000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.5626000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.1252000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5625E-10</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.1249000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.5625E-10</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.5626000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.1221E-10</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.1223000000000002E-10</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.5625E-10</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.1247999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.1218E-10</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.5626000000000001E-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9842-40E0-AA13-5DE04A16808F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="423588080"/>
+        <c:axId val="423588496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="423588080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423588496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="423588496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423588080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6594,6 +8648,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7665,6 +9759,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7739,7 +10349,1168 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8333211F-E2E7-4116-8BA6-1A032AED5C29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="test"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1">
+            <v>100000</v>
+          </cell>
+          <cell r="C1">
+            <v>110000</v>
+          </cell>
+          <cell r="D1">
+            <v>120000</v>
+          </cell>
+          <cell r="E1">
+            <v>130000</v>
+          </cell>
+          <cell r="F1">
+            <v>140000</v>
+          </cell>
+          <cell r="G1">
+            <v>150000</v>
+          </cell>
+          <cell r="H1">
+            <v>160000</v>
+          </cell>
+          <cell r="I1">
+            <v>170000</v>
+          </cell>
+          <cell r="J1">
+            <v>180000</v>
+          </cell>
+          <cell r="K1">
+            <v>190000</v>
+          </cell>
+          <cell r="L1">
+            <v>200000</v>
+          </cell>
+          <cell r="M1">
+            <v>210000</v>
+          </cell>
+          <cell r="N1">
+            <v>220000</v>
+          </cell>
+          <cell r="O1">
+            <v>230000</v>
+          </cell>
+          <cell r="P1">
+            <v>240000</v>
+          </cell>
+          <cell r="Q1">
+            <v>250000</v>
+          </cell>
+          <cell r="R1">
+            <v>260000</v>
+          </cell>
+          <cell r="S1">
+            <v>270000</v>
+          </cell>
+          <cell r="T1">
+            <v>280000</v>
+          </cell>
+          <cell r="U1">
+            <v>290000</v>
+          </cell>
+          <cell r="V1">
+            <v>300000</v>
+          </cell>
+          <cell r="W1">
+            <v>310000</v>
+          </cell>
+          <cell r="X1">
+            <v>320000</v>
+          </cell>
+          <cell r="Y1">
+            <v>330000</v>
+          </cell>
+          <cell r="Z1">
+            <v>340000</v>
+          </cell>
+          <cell r="AA1">
+            <v>350000</v>
+          </cell>
+          <cell r="AB1">
+            <v>360000</v>
+          </cell>
+          <cell r="AC1">
+            <v>370000</v>
+          </cell>
+          <cell r="AD1">
+            <v>380000</v>
+          </cell>
+          <cell r="AE1">
+            <v>390000</v>
+          </cell>
+          <cell r="AF1">
+            <v>400000</v>
+          </cell>
+          <cell r="AG1">
+            <v>410000</v>
+          </cell>
+          <cell r="AH1">
+            <v>420000</v>
+          </cell>
+          <cell r="AI1">
+            <v>430000</v>
+          </cell>
+          <cell r="AJ1">
+            <v>440000</v>
+          </cell>
+          <cell r="AK1">
+            <v>450000</v>
+          </cell>
+          <cell r="AL1">
+            <v>460000</v>
+          </cell>
+          <cell r="AM1">
+            <v>470000</v>
+          </cell>
+          <cell r="AN1">
+            <v>480000</v>
+          </cell>
+          <cell r="AO1">
+            <v>490000</v>
+          </cell>
+          <cell r="AP1">
+            <v>500000</v>
+          </cell>
+          <cell r="AQ1">
+            <v>510000</v>
+          </cell>
+          <cell r="AR1">
+            <v>520000</v>
+          </cell>
+          <cell r="AS1">
+            <v>530000</v>
+          </cell>
+          <cell r="AT1">
+            <v>540000</v>
+          </cell>
+          <cell r="AU1">
+            <v>550000</v>
+          </cell>
+          <cell r="AV1">
+            <v>560000</v>
+          </cell>
+          <cell r="AW1">
+            <v>570000</v>
+          </cell>
+          <cell r="AX1">
+            <v>580000</v>
+          </cell>
+          <cell r="AY1">
+            <v>590000</v>
+          </cell>
+          <cell r="AZ1">
+            <v>600000</v>
+          </cell>
+          <cell r="BA1">
+            <v>610000</v>
+          </cell>
+          <cell r="BB1">
+            <v>620000</v>
+          </cell>
+          <cell r="BC1">
+            <v>630000</v>
+          </cell>
+          <cell r="BD1">
+            <v>640000</v>
+          </cell>
+          <cell r="BE1">
+            <v>650000</v>
+          </cell>
+          <cell r="BF1">
+            <v>660000</v>
+          </cell>
+          <cell r="BG1">
+            <v>670000</v>
+          </cell>
+          <cell r="BH1">
+            <v>680000</v>
+          </cell>
+          <cell r="BI1">
+            <v>690000</v>
+          </cell>
+          <cell r="BJ1">
+            <v>700000</v>
+          </cell>
+          <cell r="BK1">
+            <v>710000</v>
+          </cell>
+          <cell r="BL1">
+            <v>720000</v>
+          </cell>
+          <cell r="BM1">
+            <v>730000</v>
+          </cell>
+          <cell r="BN1">
+            <v>740000</v>
+          </cell>
+          <cell r="BO1">
+            <v>750000</v>
+          </cell>
+          <cell r="BP1">
+            <v>760000</v>
+          </cell>
+          <cell r="BQ1">
+            <v>770000</v>
+          </cell>
+          <cell r="BR1">
+            <v>780000</v>
+          </cell>
+          <cell r="BS1">
+            <v>790000</v>
+          </cell>
+          <cell r="BT1">
+            <v>800000</v>
+          </cell>
+          <cell r="BU1">
+            <v>810000</v>
+          </cell>
+          <cell r="BV1">
+            <v>820000</v>
+          </cell>
+          <cell r="BW1">
+            <v>830000</v>
+          </cell>
+          <cell r="BX1">
+            <v>840000</v>
+          </cell>
+          <cell r="BY1">
+            <v>850000</v>
+          </cell>
+          <cell r="BZ1">
+            <v>860000</v>
+          </cell>
+          <cell r="CA1">
+            <v>870000</v>
+          </cell>
+          <cell r="CB1">
+            <v>880000</v>
+          </cell>
+          <cell r="CC1">
+            <v>890000</v>
+          </cell>
+          <cell r="CD1">
+            <v>900000</v>
+          </cell>
+          <cell r="CE1">
+            <v>910000</v>
+          </cell>
+          <cell r="CF1">
+            <v>920000</v>
+          </cell>
+          <cell r="CG1">
+            <v>930000</v>
+          </cell>
+          <cell r="CH1">
+            <v>940000</v>
+          </cell>
+          <cell r="CI1">
+            <v>950000</v>
+          </cell>
+          <cell r="CJ1">
+            <v>960000</v>
+          </cell>
+          <cell r="CK1">
+            <v>970000</v>
+          </cell>
+          <cell r="CL1">
+            <v>980000</v>
+          </cell>
+          <cell r="CM1">
+            <v>990000</v>
+          </cell>
+          <cell r="CN1">
+            <v>1000000</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>My Dictionary</v>
+          </cell>
+          <cell r="B2">
+            <v>3.1249000000000002E-10</v>
+          </cell>
+          <cell r="C2">
+            <v>3.9651000000000001E-10</v>
+          </cell>
+          <cell r="D2">
+            <v>3.1253999999999999E-10</v>
+          </cell>
+          <cell r="E2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="F2">
+            <v>2.6565499999999999E-9</v>
+          </cell>
+          <cell r="G2">
+            <v>1.5626000000000001E-10</v>
+          </cell>
+          <cell r="H2">
+            <v>3.1250999999999999E-10</v>
+          </cell>
+          <cell r="I2">
+            <v>1.5621E-10</v>
+          </cell>
+          <cell r="J2">
+            <v>3.1250999999999999E-10</v>
+          </cell>
+          <cell r="K2">
+            <v>3.1246000000000003E-10</v>
+          </cell>
+          <cell r="L2">
+            <v>2.3953E-10</v>
+          </cell>
+          <cell r="M2">
+            <v>3.1247999999999999E-10</v>
+          </cell>
+          <cell r="N2">
+            <v>3.1246000000000003E-10</v>
+          </cell>
+          <cell r="O2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="P2">
+            <v>1.5624E-10</v>
+          </cell>
+          <cell r="Q2">
+            <v>1.5626000000000001E-10</v>
+          </cell>
+          <cell r="R2">
+            <v>1.5624E-10</v>
+          </cell>
+          <cell r="S2">
+            <v>1.5623000000000001E-10</v>
+          </cell>
+          <cell r="T2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="U2">
+            <v>4.9999699999999996E-9</v>
+          </cell>
+          <cell r="V2">
+            <v>3.1247999999999999E-10</v>
+          </cell>
+          <cell r="W2">
+            <v>3.1250999999999999E-10</v>
+          </cell>
+          <cell r="X2">
+            <v>3.1249000000000002E-10</v>
+          </cell>
+          <cell r="Y2">
+            <v>3.1252000000000002E-10</v>
+          </cell>
+          <cell r="Z2">
+            <v>3.1253000000000001E-10</v>
+          </cell>
+          <cell r="AA2">
+            <v>1.5625E-10</v>
+          </cell>
+          <cell r="AB2">
+            <v>1.5628E-10</v>
+          </cell>
+          <cell r="AC2">
+            <v>3.1252000000000002E-10</v>
+          </cell>
+          <cell r="AD2">
+            <v>1.5628E-10</v>
+          </cell>
+          <cell r="AE2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="AF2">
+            <v>3.128E-10</v>
+          </cell>
+          <cell r="AG2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="AH2">
+            <v>1.5625E-10</v>
+          </cell>
+          <cell r="AI2">
+            <v>1.5625E-10</v>
+          </cell>
+          <cell r="AJ2">
+            <v>3.1277E-10</v>
+          </cell>
+          <cell r="AK2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="AL2">
+            <v>3.1244000000000001E-10</v>
+          </cell>
+          <cell r="AM2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="AN2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="AO2">
+            <v>3.1247000000000001E-10</v>
+          </cell>
+          <cell r="AP2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="AQ2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="AR2">
+            <v>3.1247999999999999E-10</v>
+          </cell>
+          <cell r="AS2">
+            <v>3.1246000000000003E-10</v>
+          </cell>
+          <cell r="AT2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="AU2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="AV2">
+            <v>1.5621E-10</v>
+          </cell>
+          <cell r="AW2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="AX2">
+            <v>9.6871900000000003E-9</v>
+          </cell>
+          <cell r="AY2">
+            <v>1.5625E-10</v>
+          </cell>
+          <cell r="AZ2">
+            <v>3.1249000000000002E-10</v>
+          </cell>
+          <cell r="BA2">
+            <v>1.5625E-10</v>
+          </cell>
+          <cell r="BB2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="BC2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="BD2">
+            <v>3.1247000000000001E-10</v>
+          </cell>
+          <cell r="BE2">
+            <v>1.5625E-10</v>
+          </cell>
+          <cell r="BF2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="BG2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="BH2">
+            <v>1.5624E-10</v>
+          </cell>
+          <cell r="BI2">
+            <v>3.1249000000000002E-10</v>
+          </cell>
+          <cell r="BJ2">
+            <v>1.5625E-10</v>
+          </cell>
+          <cell r="BK2">
+            <v>1.5626000000000001E-10</v>
+          </cell>
+          <cell r="BL2">
+            <v>3.1250999999999999E-10</v>
+          </cell>
+          <cell r="BM2">
+            <v>3.1247999999999999E-10</v>
+          </cell>
+          <cell r="BN2">
+            <v>3.1218999999999998E-10</v>
+          </cell>
+          <cell r="BO2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="BP2">
+            <v>1.5624E-10</v>
+          </cell>
+          <cell r="BQ2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="BR2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="BS2">
+            <v>3.1217000000000002E-10</v>
+          </cell>
+          <cell r="BT2">
+            <v>1.5625E-10</v>
+          </cell>
+          <cell r="BU2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="BV2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="BW2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="BX2">
+            <v>3.1250999999999999E-10</v>
+          </cell>
+          <cell r="BY2">
+            <v>3.1249000000000002E-10</v>
+          </cell>
+          <cell r="BZ2">
+            <v>3.1247999999999999E-10</v>
+          </cell>
+          <cell r="CA2">
+            <v>1.5625E-10</v>
+          </cell>
+          <cell r="CB2">
+            <v>1.5625E-10</v>
+          </cell>
+          <cell r="CC2">
+            <v>1.5625E-10</v>
+          </cell>
+          <cell r="CD2">
+            <v>1.5629999999999999E-10</v>
+          </cell>
+          <cell r="CE2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="CF2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="CG2">
+            <v>3.128E-10</v>
+          </cell>
+          <cell r="CH2">
+            <v>3.1220000000000002E-10</v>
+          </cell>
+          <cell r="CI2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="CJ2">
+            <v>3.1220000000000002E-10</v>
+          </cell>
+          <cell r="CK2">
+            <v>3.1249000000000002E-10</v>
+          </cell>
+          <cell r="CL2">
+            <v>1.5625E-10</v>
+          </cell>
+          <cell r="CM2">
+            <v>3.1249000000000002E-10</v>
+          </cell>
+          <cell r="CN2">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>STL map</v>
+          </cell>
+          <cell r="B3">
+            <v>3.1252000000000002E-10</v>
+          </cell>
+          <cell r="C3">
+            <v>3.1220000000000002E-10</v>
+          </cell>
+          <cell r="D3">
+            <v>4.6871000000000003E-10</v>
+          </cell>
+          <cell r="E3">
+            <v>4.6874999999999996E-10</v>
+          </cell>
+          <cell r="F3">
+            <v>4.6841000000000004E-10</v>
+          </cell>
+          <cell r="G3">
+            <v>4.6874999999999996E-10</v>
+          </cell>
+          <cell r="H3">
+            <v>3.1238000000000001E-10</v>
+          </cell>
+          <cell r="I3">
+            <v>4.6874999999999996E-10</v>
+          </cell>
+          <cell r="J3">
+            <v>4.6874999999999996E-10</v>
+          </cell>
+          <cell r="K3">
+            <v>3.1249000000000002E-10</v>
+          </cell>
+          <cell r="L3">
+            <v>4.6874999999999996E-10</v>
+          </cell>
+          <cell r="M3">
+            <v>4.6873999999999998E-10</v>
+          </cell>
+          <cell r="N3">
+            <v>4.6907000000000001E-10</v>
+          </cell>
+          <cell r="O3">
+            <v>4.6876000000000004E-10</v>
+          </cell>
+          <cell r="P3">
+            <v>3.1249000000000002E-10</v>
+          </cell>
+          <cell r="Q3">
+            <v>4.6906000000000003E-10</v>
+          </cell>
+          <cell r="R3">
+            <v>3.1247000000000001E-10</v>
+          </cell>
+          <cell r="S3">
+            <v>3.1279000000000001E-10</v>
+          </cell>
+          <cell r="T3">
+            <v>4.6874999999999996E-10</v>
+          </cell>
+          <cell r="U3">
+            <v>4.6876000000000004E-10</v>
+          </cell>
+          <cell r="V3">
+            <v>3.1244999999999999E-10</v>
+          </cell>
+          <cell r="W3">
+            <v>4.6874999999999996E-10</v>
+          </cell>
+          <cell r="X3">
+            <v>4.6874999999999996E-10</v>
+          </cell>
+          <cell r="Y3">
+            <v>3.1250999999999999E-10</v>
+          </cell>
+          <cell r="Z3">
+            <v>4.6905000000000005E-10</v>
+          </cell>
+          <cell r="AA3">
+            <v>4.6876000000000004E-10</v>
+          </cell>
+          <cell r="AB3">
+            <v>3.1247999999999999E-10</v>
+          </cell>
+          <cell r="AC3">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="AD3">
+            <v>4.6873999999999998E-10</v>
+          </cell>
+          <cell r="AE3">
+            <v>4.6874999999999996E-10</v>
+          </cell>
+          <cell r="AF3">
+            <v>3.1217000000000002E-10</v>
+          </cell>
+          <cell r="AG3">
+            <v>3.1249000000000002E-10</v>
+          </cell>
+          <cell r="AH3">
+            <v>3.1250999999999999E-10</v>
+          </cell>
+          <cell r="AI3">
+            <v>4.6905000000000005E-10</v>
+          </cell>
+          <cell r="AJ3">
+            <v>3.1282000000000001E-10</v>
+          </cell>
+          <cell r="AK3">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="AL3">
+            <v>3.1218999999999998E-10</v>
+          </cell>
+          <cell r="AM3">
+            <v>3.1250999999999999E-10</v>
+          </cell>
+          <cell r="AN3">
+            <v>3.1249000000000002E-10</v>
+          </cell>
+          <cell r="AO3">
+            <v>4.6874999999999996E-10</v>
+          </cell>
+          <cell r="AP3">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="AQ3">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="AR3">
+            <v>4.6876000000000004E-10</v>
+          </cell>
+          <cell r="AS3">
+            <v>3.1220000000000002E-10</v>
+          </cell>
+          <cell r="AT3">
+            <v>4.6874999999999996E-10</v>
+          </cell>
+          <cell r="AU3">
+            <v>4.6860000000000002E-10</v>
+          </cell>
+          <cell r="AV3">
+            <v>4.6876000000000004E-10</v>
+          </cell>
+          <cell r="AW3">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="AX3">
+            <v>3.1218E-10</v>
+          </cell>
+          <cell r="AY3">
+            <v>3.1279000000000001E-10</v>
+          </cell>
+          <cell r="AZ3">
+            <v>3.1253000000000001E-10</v>
+          </cell>
+          <cell r="BA3">
+            <v>3.1249000000000002E-10</v>
+          </cell>
+          <cell r="BB3">
+            <v>3.1253999999999999E-10</v>
+          </cell>
+          <cell r="BC3">
+            <v>3.1249000000000002E-10</v>
+          </cell>
+          <cell r="BD3">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="BE3">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="BF3">
+            <v>4.6877000000000003E-10</v>
+          </cell>
+          <cell r="BG3">
+            <v>4.6873999999999998E-10</v>
+          </cell>
+          <cell r="BH3">
+            <v>4.6845999999999995E-10</v>
+          </cell>
+          <cell r="BI3">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="BJ3">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="BK3">
+            <v>3.1252000000000002E-10</v>
+          </cell>
+          <cell r="BL3">
+            <v>3.1282000000000001E-10</v>
+          </cell>
+          <cell r="BM3">
+            <v>4.6872999999999999E-10</v>
+          </cell>
+          <cell r="BN3">
+            <v>3.1218999999999998E-10</v>
+          </cell>
+          <cell r="BO3">
+            <v>4.6876000000000004E-10</v>
+          </cell>
+          <cell r="BP3">
+            <v>4.6874999999999996E-10</v>
+          </cell>
+          <cell r="BQ3">
+            <v>4.6877000000000003E-10</v>
+          </cell>
+          <cell r="BR3">
+            <v>4.6874999999999996E-10</v>
+          </cell>
+          <cell r="BS3">
+            <v>4.6873999999999998E-10</v>
+          </cell>
+          <cell r="BT3">
+            <v>3.1250999999999999E-10</v>
+          </cell>
+          <cell r="BU3">
+            <v>4.6876000000000004E-10</v>
+          </cell>
+          <cell r="BV3">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="BW3">
+            <v>4.6874999999999996E-10</v>
+          </cell>
+          <cell r="BX3">
+            <v>3.1246000000000003E-10</v>
+          </cell>
+          <cell r="BY3">
+            <v>4.6876000000000004E-10</v>
+          </cell>
+          <cell r="BZ3">
+            <v>4.6874999999999996E-10</v>
+          </cell>
+          <cell r="CA3">
+            <v>3.1249000000000002E-10</v>
+          </cell>
+          <cell r="CB3">
+            <v>3.1252000000000002E-10</v>
+          </cell>
+          <cell r="CC3">
+            <v>4.6896E-10</v>
+          </cell>
+          <cell r="CD3">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="CE3">
+            <v>4.6845999999999995E-10</v>
+          </cell>
+          <cell r="CF3">
+            <v>4.6874999999999996E-10</v>
+          </cell>
+          <cell r="CG3">
+            <v>4.6879999999999997E-10</v>
+          </cell>
+          <cell r="CH3">
+            <v>4.6874999999999996E-10</v>
+          </cell>
+          <cell r="CI3">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="CJ3">
+            <v>3.1247000000000001E-10</v>
+          </cell>
+          <cell r="CK3">
+            <v>4.6876000000000004E-10</v>
+          </cell>
+          <cell r="CL3">
+            <v>4.6879999999999997E-10</v>
+          </cell>
+          <cell r="CM3">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="CN3">
+            <v>4.6873999999999998E-10</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Unordered STL map</v>
+          </cell>
+          <cell r="B4">
+            <v>1.5622E-10</v>
+          </cell>
+          <cell r="C4">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="D4">
+            <v>3.1250999999999999E-10</v>
+          </cell>
+          <cell r="E4">
+            <v>1.5619999999999999E-10</v>
+          </cell>
+          <cell r="F4">
+            <v>3.1280999999999998E-10</v>
+          </cell>
+          <cell r="G4">
+            <v>3.1249000000000002E-10</v>
+          </cell>
+          <cell r="H4">
+            <v>3.128E-10</v>
+          </cell>
+          <cell r="I4">
+            <v>1.5625E-10</v>
+          </cell>
+          <cell r="J4">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="K4">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="L4">
+            <v>3.1250999999999999E-10</v>
+          </cell>
+          <cell r="M4">
+            <v>1.5625E-10</v>
+          </cell>
+          <cell r="N4">
+            <v>1.5625E-10</v>
+          </cell>
+          <cell r="O4">
+            <v>1.5616000000000001E-10</v>
+          </cell>
+          <cell r="P4">
+            <v>3.1250999999999999E-10</v>
+          </cell>
+          <cell r="Q4">
+            <v>4.6878999999999999E-10</v>
+          </cell>
+          <cell r="R4">
+            <v>3.1249000000000002E-10</v>
+          </cell>
+          <cell r="S4">
+            <v>3.1249000000000002E-10</v>
+          </cell>
+          <cell r="T4">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="U4">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="V4">
+            <v>3.1246000000000003E-10</v>
+          </cell>
+          <cell r="W4">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="X4">
+            <v>1.5626000000000001E-10</v>
+          </cell>
+          <cell r="Y4">
+            <v>1.5626000000000001E-10</v>
+          </cell>
+          <cell r="Z4">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="AA4">
+            <v>3.1259999999999999E-10</v>
+          </cell>
+          <cell r="AB4">
+            <v>1.5624E-10</v>
+          </cell>
+          <cell r="AC4">
+            <v>3.1252000000000002E-10</v>
+          </cell>
+          <cell r="AD4">
+            <v>3.1217000000000002E-10</v>
+          </cell>
+          <cell r="AE4">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="AF4">
+            <v>1.5625E-10</v>
+          </cell>
+          <cell r="AG4">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="AH4">
+            <v>3.1250999999999999E-10</v>
+          </cell>
+          <cell r="AI4">
+            <v>1.5624E-10</v>
+          </cell>
+          <cell r="AJ4">
+            <v>3.1217000000000002E-10</v>
+          </cell>
+          <cell r="AK4">
+            <v>1.5626000000000001E-10</v>
+          </cell>
+          <cell r="AL4">
+            <v>1.5625E-10</v>
+          </cell>
+          <cell r="AM4">
+            <v>3.1252000000000002E-10</v>
+          </cell>
+          <cell r="AN4">
+            <v>3.1250999999999999E-10</v>
+          </cell>
+          <cell r="AO4">
+            <v>3.1247999999999999E-10</v>
+          </cell>
+          <cell r="AP4">
+            <v>1.5625E-10</v>
+          </cell>
+          <cell r="AQ4">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="AR4">
+            <v>6.2502999999999996E-10</v>
+          </cell>
+          <cell r="AS4">
+            <v>1.5625E-10</v>
+          </cell>
+          <cell r="AT4">
+            <v>1.5626000000000001E-10</v>
+          </cell>
+          <cell r="AU4">
+            <v>3.1250999999999999E-10</v>
+          </cell>
+          <cell r="AV4">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="AW4">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="AX4">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="AY4">
+            <v>3.1250999999999999E-10</v>
+          </cell>
+          <cell r="AZ4">
+            <v>1.5626000000000001E-10</v>
+          </cell>
+          <cell r="BA4">
+            <v>1.5625E-10</v>
+          </cell>
+          <cell r="BB4">
+            <v>1.5624E-10</v>
+          </cell>
+          <cell r="BC4">
+            <v>1.5626000000000001E-10</v>
+          </cell>
+          <cell r="BD4">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="BE4">
+            <v>3.1244999999999999E-10</v>
+          </cell>
+          <cell r="BF4">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="BG4">
+            <v>3.1265E-10</v>
+          </cell>
+          <cell r="BH4">
+            <v>3.1252000000000002E-10</v>
+          </cell>
+          <cell r="BI4">
+            <v>3.1247999999999999E-10</v>
+          </cell>
+          <cell r="BJ4">
+            <v>3.1241000000000001E-10</v>
+          </cell>
+          <cell r="BK4">
+            <v>1.5621E-10</v>
+          </cell>
+          <cell r="BL4">
+            <v>3.1249000000000002E-10</v>
+          </cell>
+          <cell r="BM4">
+            <v>3.1249000000000002E-10</v>
+          </cell>
+          <cell r="BN4">
+            <v>1.5626000000000001E-10</v>
+          </cell>
+          <cell r="BO4">
+            <v>1.5623000000000001E-10</v>
+          </cell>
+          <cell r="BP4">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="BQ4">
+            <v>1.5625E-10</v>
+          </cell>
+          <cell r="BR4">
+            <v>1.5625E-10</v>
+          </cell>
+          <cell r="BS4">
+            <v>3.128E-10</v>
+          </cell>
+          <cell r="BT4">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="BU4">
+            <v>3.1265E-10</v>
+          </cell>
+          <cell r="BV4">
+            <v>1.5626000000000001E-10</v>
+          </cell>
+          <cell r="BW4">
+            <v>3.1280999999999998E-10</v>
+          </cell>
+          <cell r="BX4">
+            <v>3.1252000000000002E-10</v>
+          </cell>
+          <cell r="BY4">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="BZ4">
+            <v>1.5607999999999999E-10</v>
+          </cell>
+          <cell r="CA4">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="CB4">
+            <v>3.1250000000000001E-10</v>
+          </cell>
+          <cell r="CC4">
+            <v>1.5626000000000001E-10</v>
+          </cell>
+          <cell r="CD4">
+            <v>3.1252000000000002E-10</v>
+          </cell>
+          <cell r="CE4">
+            <v>1.5625E-10</v>
+          </cell>
+          <cell r="CF4">
+            <v>3.1249000000000002E-10</v>
+          </cell>
+          <cell r="CG4">
+            <v>1.5625E-10</v>
+          </cell>
+          <cell r="CH4">
+            <v>1.5626000000000001E-10</v>
+          </cell>
+          <cell r="CI4">
+            <v>3.1221E-10</v>
+          </cell>
+          <cell r="CJ4">
+            <v>3.1223000000000002E-10</v>
+          </cell>
+          <cell r="CK4">
+            <v>1.5625E-10</v>
+          </cell>
+          <cell r="CL4">
+            <v>3.1247999999999999E-10</v>
+          </cell>
+          <cell r="CM4">
+            <v>3.1218E-10</v>
+          </cell>
+          <cell r="CN4">
+            <v>1.5626000000000001E-10</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8039,15 +11810,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GJ14"/>
+  <dimension ref="A1:GJ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:192" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:192" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>100000</v>
       </c>
@@ -8322,841 +12093,841 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="2" spans="1:192" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:192" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>0.11170099999999999</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>0.12070500000000001</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>0.114694</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>0.117685</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>0.12070500000000001</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>0.20946699999999999</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>0.214424</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>0.21503900000000001</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>0.21678800000000001</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <v>0.219441</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>0.22103</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2">
         <v>0.22443299999999999</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2">
         <v>0.22838700000000001</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2">
         <v>0.23041200000000001</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2">
         <v>0.234373</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2">
         <v>0.235371</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2">
         <v>0.23933399999999999</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2">
         <v>0.24335000000000001</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2">
         <v>0.25332199999999999</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2">
         <v>0.25033100000000003</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2">
         <v>0.423875</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2">
         <v>0.435836</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2">
         <v>0.43184499999999998</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2">
         <v>0.43483699999999997</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2">
         <v>0.43782799999999999</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2">
         <v>0.44181900000000002</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2">
         <v>0.44181999999999999</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2">
         <v>0.44578099999999998</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD2">
         <v>0.45381700000000003</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE2">
         <v>0.45076699999999997</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF2">
         <v>0.450768</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AG2">
         <v>0.45675199999999999</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AH2">
         <v>0.46276200000000001</v>
       </c>
-      <c r="AI2" s="2">
+      <c r="AI2">
         <v>0.46376000000000001</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AJ2">
         <v>0.46974500000000002</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AK2">
         <v>0.466752</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AL2">
         <v>0.47276400000000002</v>
       </c>
-      <c r="AM2" s="2">
+      <c r="AM2">
         <v>0.46977099999999999</v>
       </c>
-      <c r="AN2" s="2">
+      <c r="AN2">
         <v>0.47772300000000001</v>
       </c>
-      <c r="AO2" s="2">
+      <c r="AO2">
         <v>0.483736</v>
       </c>
-      <c r="AP2" s="2">
+      <c r="AP2">
         <v>0.482709</v>
       </c>
-      <c r="AQ2" s="2">
+      <c r="AQ2">
         <v>0.486738</v>
       </c>
-      <c r="AR2" s="2">
+      <c r="AR2">
         <v>0.48766100000000001</v>
       </c>
-      <c r="AS2" s="2">
+      <c r="AS2">
         <v>0.48871999999999999</v>
       </c>
-      <c r="AT2" s="2">
+      <c r="AT2">
         <v>0.49464999999999998</v>
       </c>
-      <c r="AU2" s="2">
+      <c r="AU2">
         <v>0.49967299999999998</v>
       </c>
-      <c r="AV2" s="2">
+      <c r="AV2">
         <v>0.49771700000000002</v>
       </c>
-      <c r="AW2" s="2">
+      <c r="AW2">
         <v>0.50661400000000001</v>
       </c>
-      <c r="AX2" s="2">
+      <c r="AX2">
         <v>0.50561999999999996</v>
       </c>
-      <c r="AY2" s="2">
+      <c r="AY2">
         <v>0.85272999999999999</v>
       </c>
-      <c r="AZ2" s="2">
+      <c r="AZ2">
         <v>0.86167400000000005</v>
       </c>
-      <c r="BA2" s="2">
+      <c r="BA2">
         <v>0.85571200000000003</v>
       </c>
-      <c r="BB2" s="2">
+      <c r="BB2">
         <v>0.85970400000000002</v>
       </c>
-      <c r="BC2" s="2">
+      <c r="BC2">
         <v>0.865707</v>
       </c>
-      <c r="BD2" s="2">
+      <c r="BD2">
         <v>0.87463599999999997</v>
       </c>
-      <c r="BE2" s="2">
+      <c r="BE2">
         <v>0.86765499999999995</v>
       </c>
-      <c r="BF2" s="2">
+      <c r="BF2">
         <v>0.87266699999999997</v>
       </c>
-      <c r="BG2" s="2">
+      <c r="BG2">
         <v>0.87474700000000005</v>
       </c>
-      <c r="BH2" s="2">
+      <c r="BH2">
         <v>0.87565899999999997</v>
       </c>
-      <c r="BI2" s="2">
+      <c r="BI2">
         <v>0.878189</v>
       </c>
-      <c r="BJ2" s="2">
+      <c r="BJ2">
         <v>0.87372700000000003</v>
       </c>
-      <c r="BK2" s="2">
+      <c r="BK2">
         <v>0.87868000000000002</v>
       </c>
-      <c r="BL2" s="2">
+      <c r="BL2">
         <v>0.89763499999999996</v>
       </c>
-      <c r="BM2" s="2">
+      <c r="BM2">
         <v>0.89025600000000005</v>
       </c>
-      <c r="BN2" s="2">
+      <c r="BN2">
         <v>0.89061999999999997</v>
       </c>
-      <c r="BO2" s="2">
+      <c r="BO2">
         <v>0.88862399999999997</v>
       </c>
-      <c r="BP2" s="2">
+      <c r="BP2">
         <v>0.89458199999999999</v>
       </c>
-      <c r="BQ2" s="2">
+      <c r="BQ2">
         <v>0.89558700000000002</v>
       </c>
-      <c r="BR2" s="2">
+      <c r="BR2">
         <v>0.89864699999999997</v>
       </c>
-      <c r="BS2" s="2">
+      <c r="BS2">
         <v>0.902586</v>
       </c>
-      <c r="BT2" s="2">
+      <c r="BT2">
         <v>0.90359</v>
       </c>
-      <c r="BU2" s="2">
+      <c r="BU2">
         <v>0.92050600000000005</v>
       </c>
-      <c r="BV2" s="2">
+      <c r="BV2">
         <v>0.90857399999999999</v>
       </c>
-      <c r="BW2" s="2">
+      <c r="BW2">
         <v>0.90863000000000005</v>
       </c>
-      <c r="BX2" s="2">
+      <c r="BX2">
         <v>0.91456099999999996</v>
       </c>
-      <c r="BY2" s="2">
+      <c r="BY2">
         <v>0.92854999999999999</v>
       </c>
-      <c r="BZ2" s="2">
+      <c r="BZ2">
         <v>0.91954199999999997</v>
       </c>
-      <c r="CA2" s="2">
+      <c r="CA2">
         <v>0.91517800000000005</v>
       </c>
-      <c r="CB2" s="2">
+      <c r="CB2">
         <v>0.92553200000000002</v>
       </c>
-      <c r="CC2" s="2">
+      <c r="CC2">
         <v>0.92948799999999998</v>
       </c>
-      <c r="CD2" s="2">
+      <c r="CD2">
         <v>0.93151499999999998</v>
       </c>
-      <c r="CE2" s="2">
+      <c r="CE2">
         <v>0.92646200000000001</v>
       </c>
-      <c r="CF2" s="2">
+      <c r="CF2">
         <v>0.94748200000000005</v>
       </c>
-      <c r="CG2" s="2">
+      <c r="CG2">
         <v>0.97841800000000001</v>
       </c>
-      <c r="CH2" s="2">
+      <c r="CH2">
         <v>0.94248100000000001</v>
       </c>
-      <c r="CI2" s="2">
+      <c r="CI2">
         <v>0.96342399999999995</v>
       </c>
-      <c r="CJ2" s="2">
+      <c r="CJ2">
         <v>0.95048999999999995</v>
       </c>
-      <c r="CK2" s="2">
+      <c r="CK2">
         <v>0.93447400000000003</v>
       </c>
-      <c r="CL2" s="2">
+      <c r="CL2">
         <v>0.94847599999999999</v>
       </c>
-      <c r="CM2" s="2">
+      <c r="CM2">
         <v>0.95843699999999998</v>
       </c>
-      <c r="CN2" s="2">
+      <c r="CN2">
         <v>0.96041399999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:192" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:192" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>7.9813999999999996E-2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>8.4773899999999999E-2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>9.3721899999999997E-2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>0.101728</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>0.110705</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>0.118683</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>0.126661</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <v>0.13563800000000001</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>0.14364499999999999</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <v>0.15357299999999999</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3">
         <v>0.16159899999999999</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3">
         <v>0.16952</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3">
         <v>0.17752699999999999</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3">
         <v>0.19049199999999999</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3">
         <v>0.19545100000000001</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3">
         <v>0.203432</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3">
         <v>0.21241099999999999</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3">
         <v>0.22240599999999999</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3">
         <v>0.23135500000000001</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3">
         <v>0.23935999999999999</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3">
         <v>0.246309</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3">
         <v>0.25727800000000001</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3">
         <v>0.26628800000000002</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3">
         <v>0.27227200000000001</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3">
         <v>0.28221499999999999</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3">
         <v>0.29119299999999998</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3">
         <v>0.300259</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AC3">
         <v>0.30720700000000001</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AD3">
         <v>0.31814799999999999</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AE3">
         <v>0.326127</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AF3">
         <v>0.33516299999999999</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AG3">
         <v>0.34408100000000003</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AH3">
         <v>0.35405199999999998</v>
       </c>
-      <c r="AI3" s="2">
+      <c r="AI3">
         <v>0.36103499999999999</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AJ3">
         <v>0.37200499999999997</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AK3">
         <v>0.37895099999999998</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AL3">
         <v>0.386994</v>
       </c>
-      <c r="AM3" s="2">
+      <c r="AM3">
         <v>0.39694000000000002</v>
       </c>
-      <c r="AN3" s="2">
+      <c r="AN3">
         <v>0.40591100000000002</v>
       </c>
-      <c r="AO3" s="2">
+      <c r="AO3">
         <v>0.41787999999999997</v>
       </c>
-      <c r="AP3" s="2">
+      <c r="AP3">
         <v>0.42483599999999999</v>
       </c>
-      <c r="AQ3" s="2">
+      <c r="AQ3">
         <v>0.43480999999999997</v>
       </c>
-      <c r="AR3" s="2">
+      <c r="AR3">
         <v>0.44281599999999999</v>
       </c>
-      <c r="AS3" s="2">
+      <c r="AS3">
         <v>0.45185599999999998</v>
       </c>
-      <c r="AT3" s="2">
+      <c r="AT3">
         <v>0.46273500000000001</v>
       </c>
-      <c r="AU3" s="2">
+      <c r="AU3">
         <v>0.46975099999999997</v>
       </c>
-      <c r="AV3" s="2">
+      <c r="AV3">
         <v>0.49368099999999998</v>
       </c>
-      <c r="AW3" s="2">
+      <c r="AW3">
         <v>0.48975200000000002</v>
       </c>
-      <c r="AX3" s="2">
+      <c r="AX3">
         <v>0.50365400000000005</v>
       </c>
-      <c r="AY3" s="2">
+      <c r="AY3">
         <v>0.50963800000000004</v>
       </c>
-      <c r="AZ3" s="2">
+      <c r="AZ3">
         <v>0.51665099999999997</v>
       </c>
-      <c r="BA3" s="2">
+      <c r="BA3">
         <v>0.53756899999999996</v>
       </c>
-      <c r="BB3" s="2">
+      <c r="BB3">
         <v>0.53656700000000002</v>
       </c>
-      <c r="BC3" s="2">
+      <c r="BC3">
         <v>0.54452</v>
       </c>
-      <c r="BD3" s="2">
+      <c r="BD3">
         <v>0.55554300000000001</v>
       </c>
-      <c r="BE3" s="2">
+      <c r="BE3">
         <v>0.560473</v>
       </c>
-      <c r="BF3" s="2">
+      <c r="BF3">
         <v>0.56950500000000004</v>
       </c>
-      <c r="BG3" s="2">
+      <c r="BG3">
         <v>0.582453</v>
       </c>
-      <c r="BH3" s="2">
+      <c r="BH3">
         <v>0.58742799999999995</v>
       </c>
-      <c r="BI3" s="2">
+      <c r="BI3">
         <v>0.597383</v>
       </c>
-      <c r="BJ3" s="2">
+      <c r="BJ3">
         <v>0.60640400000000005</v>
       </c>
-      <c r="BK3" s="2">
+      <c r="BK3">
         <v>0.63531099999999996</v>
       </c>
-      <c r="BL3" s="2">
+      <c r="BL3">
         <v>0.622363</v>
       </c>
-      <c r="BM3" s="2">
+      <c r="BM3">
         <v>0.64026000000000005</v>
       </c>
-      <c r="BN3" s="2">
+      <c r="BN3">
         <v>0.64527599999999996</v>
       </c>
-      <c r="BO3" s="2">
+      <c r="BO3">
         <v>0.65423200000000004</v>
       </c>
-      <c r="BP3" s="2">
+      <c r="BP3">
         <v>0.67123600000000005</v>
       </c>
-      <c r="BQ3" s="2">
+      <c r="BQ3">
         <v>0.67422300000000002</v>
       </c>
-      <c r="BR3" s="2">
+      <c r="BR3">
         <v>0.68118000000000001</v>
       </c>
-      <c r="BS3" s="2">
+      <c r="BS3">
         <v>0.69714500000000001</v>
       </c>
-      <c r="BT3" s="2">
+      <c r="BT3">
         <v>0.715059</v>
       </c>
-      <c r="BU3" s="2">
+      <c r="BU3">
         <v>0.71310200000000001</v>
       </c>
-      <c r="BV3" s="2">
+      <c r="BV3">
         <v>0.72007699999999997</v>
       </c>
-      <c r="BW3" s="2">
+      <c r="BW3">
         <v>0.72902299999999998</v>
       </c>
-      <c r="BX3" s="2">
+      <c r="BX3">
         <v>0.73903399999999997</v>
       </c>
-      <c r="BY3" s="2">
+      <c r="BY3">
         <v>0.74952799999999997</v>
       </c>
-      <c r="BZ3" s="2">
+      <c r="BZ3">
         <v>0.76097400000000004</v>
       </c>
-      <c r="CA3" s="2">
+      <c r="CA3">
         <v>0.76695000000000002</v>
       </c>
-      <c r="CB3" s="2">
+      <c r="CB3">
         <v>0.780918</v>
       </c>
-      <c r="CC3" s="2">
+      <c r="CC3">
         <v>0.78690700000000002</v>
       </c>
-      <c r="CD3" s="2">
+      <c r="CD3">
         <v>0.79787399999999997</v>
       </c>
-      <c r="CE3" s="2">
+      <c r="CE3">
         <v>0.80691299999999999</v>
       </c>
-      <c r="CF3" s="2">
+      <c r="CF3">
         <v>0.82576300000000002</v>
       </c>
-      <c r="CG3" s="2">
+      <c r="CG3">
         <v>0.82776000000000005</v>
       </c>
-      <c r="CH3" s="2">
+      <c r="CH3">
         <v>0.83776600000000001</v>
       </c>
-      <c r="CI3" s="2">
+      <c r="CI3">
         <v>0.842754</v>
       </c>
-      <c r="CJ3" s="2">
+      <c r="CJ3">
         <v>0.85468500000000003</v>
       </c>
-      <c r="CK3" s="2">
+      <c r="CK3">
         <v>0.86269899999999999</v>
       </c>
-      <c r="CL3" s="2">
+      <c r="CL3">
         <v>0.87967600000000001</v>
       </c>
-      <c r="CM3" s="2">
+      <c r="CM3">
         <v>0.88460499999999997</v>
       </c>
-      <c r="CN3" s="2">
+      <c r="CN3">
         <v>0.89263599999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:192" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:192" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>3.7897899999999998E-2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>4.1918299999999999E-2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>4.4880099999999999E-2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>4.9867599999999998E-2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>5.2831900000000001E-2</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>5.58226E-2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>5.98133E-2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
         <v>6.3828499999999996E-2</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>6.7847099999999994E-2</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4">
         <v>7.0782200000000003E-2</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4">
         <v>7.6829999999999996E-2</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4">
         <v>8.0782000000000007E-2</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4">
         <v>9.9733100000000005E-2</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4">
         <v>0.101729</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4">
         <v>0.107694</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4">
         <v>0.110677</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4">
         <v>0.11469500000000001</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4">
         <v>0.12167500000000001</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4">
         <v>0.12467</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4">
         <v>0.126633</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4">
         <v>0.13264500000000001</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4">
         <v>0.13467199999999999</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4">
         <v>0.13763300000000001</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4">
         <v>0.154587</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4">
         <v>0.14760599999999999</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4">
         <v>0.15162200000000001</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4">
         <v>0.154587</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC4">
         <v>0.15957299999999999</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AD4">
         <v>0.16667399999999999</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AE4">
         <v>0.172597</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AF4">
         <v>0.170546</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AG4">
         <v>0.17851800000000001</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AH4">
         <v>0.18448000000000001</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AI4">
         <v>0.188524</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AJ4">
         <v>0.19258500000000001</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AK4">
         <v>0.233403</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AL4">
         <v>0.233406</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AM4">
         <v>0.24437500000000001</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AN4">
         <v>0.24334900000000001</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AO4">
         <v>0.25235999999999997</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AP4">
         <v>0.25661400000000001</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AQ4">
         <v>0.25730999999999998</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AR4">
         <v>0.26429399999999997</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AS4">
         <v>0.279252</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="AT4">
         <v>0.27237899999999998</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AU4">
         <v>0.279254</v>
       </c>
-      <c r="AV4" s="2">
+      <c r="AV4">
         <v>0.28124500000000002</v>
       </c>
-      <c r="AW4" s="2">
+      <c r="AW4">
         <v>0.28523799999999999</v>
       </c>
-      <c r="AX4" s="2">
+      <c r="AX4">
         <v>0.28825299999999998</v>
       </c>
-      <c r="AY4" s="2">
+      <c r="AY4">
         <v>0.29019899999999998</v>
       </c>
-      <c r="AZ4" s="2">
+      <c r="AZ4">
         <v>0.29723300000000002</v>
       </c>
-      <c r="BA4" s="2">
+      <c r="BA4">
         <v>0.29823300000000003</v>
       </c>
-      <c r="BB4" s="2">
+      <c r="BB4">
         <v>0.30320900000000001</v>
       </c>
-      <c r="BC4" s="2">
+      <c r="BC4">
         <v>0.30919999999999997</v>
       </c>
-      <c r="BD4" s="2">
+      <c r="BD4">
         <v>0.31718499999999999</v>
       </c>
-      <c r="BE4" s="2">
+      <c r="BE4">
         <v>0.31911699999999998</v>
       </c>
-      <c r="BF4" s="2">
+      <c r="BF4">
         <v>0.32117000000000001</v>
       </c>
-      <c r="BG4" s="2">
+      <c r="BG4">
         <v>0.33114300000000002</v>
       </c>
-      <c r="BH4" s="2">
+      <c r="BH4">
         <v>0.33513100000000001</v>
       </c>
-      <c r="BI4" s="2">
+      <c r="BI4">
         <v>0.33812399999999998</v>
       </c>
-      <c r="BJ4" s="2">
+      <c r="BJ4">
         <v>0.34405400000000003</v>
       </c>
-      <c r="BK4" s="2">
+      <c r="BK4">
         <v>0.34308300000000003</v>
       </c>
-      <c r="BL4" s="2">
+      <c r="BL4">
         <v>0.35904000000000003</v>
       </c>
-      <c r="BM4" s="2">
+      <c r="BM4">
         <v>0.35904000000000003</v>
       </c>
-      <c r="BN4" s="2">
+      <c r="BN4">
         <v>0.36305700000000002</v>
       </c>
-      <c r="BO4" s="2">
+      <c r="BO4">
         <v>0.36749799999999999</v>
       </c>
-      <c r="BP4" s="2">
+      <c r="BP4">
         <v>0.366089</v>
       </c>
-      <c r="BQ4" s="2">
+      <c r="BQ4">
         <v>0.374004</v>
       </c>
-      <c r="BR4" s="2">
+      <c r="BR4">
         <v>0.38100899999999999</v>
       </c>
-      <c r="BS4" s="2">
+      <c r="BS4">
         <v>0.39397399999999999</v>
       </c>
-      <c r="BT4" s="2">
+      <c r="BT4">
         <v>0.38693300000000003</v>
       </c>
-      <c r="BU4" s="2">
+      <c r="BU4">
         <v>0.40292299999999998</v>
       </c>
-      <c r="BV4" s="2">
+      <c r="BV4">
         <v>0.404916</v>
       </c>
-      <c r="BW4" s="2">
+      <c r="BW4">
         <v>0.403947</v>
       </c>
-      <c r="BX4" s="2">
+      <c r="BX4">
         <v>0.41087400000000002</v>
       </c>
-      <c r="BY4" s="2">
+      <c r="BY4">
         <v>0.41885</v>
       </c>
-      <c r="BZ4" s="2">
+      <c r="BZ4">
         <v>0.42688599999999999</v>
       </c>
-      <c r="CA4" s="2">
+      <c r="CA4">
         <v>0.43184600000000001</v>
       </c>
-      <c r="CB4" s="2">
+      <c r="CB4">
         <v>0.43281500000000001</v>
       </c>
-      <c r="CC4" s="2">
+      <c r="CC4">
         <v>0.44043599999999999</v>
       </c>
-      <c r="CD4" s="2">
+      <c r="CD4">
         <v>0.44378699999999999</v>
       </c>
-      <c r="CE4" s="2">
+      <c r="CE4">
         <v>0.52659400000000001</v>
       </c>
-      <c r="CF4" s="2">
+      <c r="CF4">
         <v>0.52858700000000003</v>
       </c>
-      <c r="CG4" s="2">
+      <c r="CG4">
         <v>0.53457100000000002</v>
       </c>
-      <c r="CH4" s="2">
+      <c r="CH4">
         <v>0.54023399999999999</v>
       </c>
-      <c r="CI4" s="2">
+      <c r="CI4">
         <v>0.54454400000000003</v>
       </c>
-      <c r="CJ4" s="2">
+      <c r="CJ4">
         <v>0.55352100000000004</v>
       </c>
-      <c r="CK4" s="2">
+      <c r="CK4">
         <v>0.55753699999999995</v>
       </c>
-      <c r="CL4" s="2">
+      <c r="CL4">
         <v>0.55705199999999999</v>
       </c>
-      <c r="CM4" s="2">
+      <c r="CM4">
         <v>0.56648900000000002</v>
       </c>
-      <c r="CN4" s="2">
+      <c r="CN4">
         <v>0.60740700000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:192" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:192" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>100000</v>
       </c>
@@ -9731,7 +13502,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="7" spans="1:192" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:192" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -10309,7 +14080,7 @@
         <v>1.9653</v>
       </c>
     </row>
-    <row r="8" spans="1:192" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:192" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -10887,7 +14658,7 @@
         <v>1.87927</v>
       </c>
     </row>
-    <row r="9" spans="1:192" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:192" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -11465,7 +15236,7 @@
         <v>1.2354499999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:192" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:192" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>10000</v>
       </c>
@@ -11740,7 +15511,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="12" spans="1:192" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:192" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -12018,7 +15789,7 @@
         <v>8.2752199999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:192" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:192" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -12296,7 +16067,7 @@
         <v>8.0784999999999996E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:192" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:192" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -12572,6 +16343,1115 @@
       </c>
       <c r="CN14">
         <v>3.6901999999999997E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>100000</v>
+      </c>
+      <c r="C65">
+        <v>110000</v>
+      </c>
+      <c r="D65">
+        <v>120000</v>
+      </c>
+      <c r="E65">
+        <v>130000</v>
+      </c>
+      <c r="F65">
+        <v>140000</v>
+      </c>
+      <c r="G65">
+        <v>150000</v>
+      </c>
+      <c r="H65">
+        <v>160000</v>
+      </c>
+      <c r="I65">
+        <v>170000</v>
+      </c>
+      <c r="J65">
+        <v>180000</v>
+      </c>
+      <c r="K65">
+        <v>190000</v>
+      </c>
+      <c r="L65">
+        <v>200000</v>
+      </c>
+      <c r="M65">
+        <v>210000</v>
+      </c>
+      <c r="N65">
+        <v>220000</v>
+      </c>
+      <c r="O65">
+        <v>230000</v>
+      </c>
+      <c r="P65">
+        <v>240000</v>
+      </c>
+      <c r="Q65">
+        <v>250000</v>
+      </c>
+      <c r="R65">
+        <v>260000</v>
+      </c>
+      <c r="S65">
+        <v>270000</v>
+      </c>
+      <c r="T65">
+        <v>280000</v>
+      </c>
+      <c r="U65">
+        <v>290000</v>
+      </c>
+      <c r="V65">
+        <v>300000</v>
+      </c>
+      <c r="W65">
+        <v>310000</v>
+      </c>
+      <c r="X65">
+        <v>320000</v>
+      </c>
+      <c r="Y65">
+        <v>330000</v>
+      </c>
+      <c r="Z65">
+        <v>340000</v>
+      </c>
+      <c r="AA65">
+        <v>350000</v>
+      </c>
+      <c r="AB65">
+        <v>360000</v>
+      </c>
+      <c r="AC65">
+        <v>370000</v>
+      </c>
+      <c r="AD65">
+        <v>380000</v>
+      </c>
+      <c r="AE65">
+        <v>390000</v>
+      </c>
+      <c r="AF65">
+        <v>400000</v>
+      </c>
+      <c r="AG65">
+        <v>410000</v>
+      </c>
+      <c r="AH65">
+        <v>420000</v>
+      </c>
+      <c r="AI65">
+        <v>430000</v>
+      </c>
+      <c r="AJ65">
+        <v>440000</v>
+      </c>
+      <c r="AK65">
+        <v>450000</v>
+      </c>
+      <c r="AL65">
+        <v>460000</v>
+      </c>
+      <c r="AM65">
+        <v>470000</v>
+      </c>
+      <c r="AN65">
+        <v>480000</v>
+      </c>
+      <c r="AO65">
+        <v>490000</v>
+      </c>
+      <c r="AP65">
+        <v>500000</v>
+      </c>
+      <c r="AQ65">
+        <v>510000</v>
+      </c>
+      <c r="AR65">
+        <v>520000</v>
+      </c>
+      <c r="AS65">
+        <v>530000</v>
+      </c>
+      <c r="AT65">
+        <v>540000</v>
+      </c>
+      <c r="AU65">
+        <v>550000</v>
+      </c>
+      <c r="AV65">
+        <v>560000</v>
+      </c>
+      <c r="AW65">
+        <v>570000</v>
+      </c>
+      <c r="AX65">
+        <v>580000</v>
+      </c>
+      <c r="AY65">
+        <v>590000</v>
+      </c>
+      <c r="AZ65">
+        <v>600000</v>
+      </c>
+      <c r="BA65">
+        <v>610000</v>
+      </c>
+      <c r="BB65">
+        <v>620000</v>
+      </c>
+      <c r="BC65">
+        <v>630000</v>
+      </c>
+      <c r="BD65">
+        <v>640000</v>
+      </c>
+      <c r="BE65">
+        <v>650000</v>
+      </c>
+      <c r="BF65">
+        <v>660000</v>
+      </c>
+      <c r="BG65">
+        <v>670000</v>
+      </c>
+      <c r="BH65">
+        <v>680000</v>
+      </c>
+      <c r="BI65">
+        <v>690000</v>
+      </c>
+      <c r="BJ65">
+        <v>700000</v>
+      </c>
+      <c r="BK65">
+        <v>710000</v>
+      </c>
+      <c r="BL65">
+        <v>720000</v>
+      </c>
+      <c r="BM65">
+        <v>730000</v>
+      </c>
+      <c r="BN65">
+        <v>740000</v>
+      </c>
+      <c r="BO65">
+        <v>750000</v>
+      </c>
+      <c r="BP65">
+        <v>760000</v>
+      </c>
+      <c r="BQ65">
+        <v>770000</v>
+      </c>
+      <c r="BR65">
+        <v>780000</v>
+      </c>
+      <c r="BS65">
+        <v>790000</v>
+      </c>
+      <c r="BT65">
+        <v>800000</v>
+      </c>
+      <c r="BU65">
+        <v>810000</v>
+      </c>
+      <c r="BV65">
+        <v>820000</v>
+      </c>
+      <c r="BW65">
+        <v>830000</v>
+      </c>
+      <c r="BX65">
+        <v>840000</v>
+      </c>
+      <c r="BY65">
+        <v>850000</v>
+      </c>
+      <c r="BZ65">
+        <v>860000</v>
+      </c>
+      <c r="CA65">
+        <v>870000</v>
+      </c>
+      <c r="CB65">
+        <v>880000</v>
+      </c>
+      <c r="CC65">
+        <v>890000</v>
+      </c>
+      <c r="CD65">
+        <v>900000</v>
+      </c>
+      <c r="CE65">
+        <v>910000</v>
+      </c>
+      <c r="CF65">
+        <v>920000</v>
+      </c>
+      <c r="CG65">
+        <v>930000</v>
+      </c>
+      <c r="CH65">
+        <v>940000</v>
+      </c>
+      <c r="CI65">
+        <v>950000</v>
+      </c>
+      <c r="CJ65">
+        <v>960000</v>
+      </c>
+      <c r="CK65">
+        <v>970000</v>
+      </c>
+      <c r="CL65">
+        <v>980000</v>
+      </c>
+      <c r="CM65">
+        <v>990000</v>
+      </c>
+      <c r="CN65">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2">
+        <v>3.1249000000000002E-10</v>
+      </c>
+      <c r="C66" s="2">
+        <v>3.9651000000000001E-10</v>
+      </c>
+      <c r="D66" s="2">
+        <v>3.1253999999999999E-10</v>
+      </c>
+      <c r="E66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="F66" s="2">
+        <v>2.6565499999999999E-9</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1.5626000000000001E-10</v>
+      </c>
+      <c r="H66" s="2">
+        <v>3.1250999999999999E-10</v>
+      </c>
+      <c r="I66" s="2">
+        <v>1.5621E-10</v>
+      </c>
+      <c r="J66" s="2">
+        <v>3.1250999999999999E-10</v>
+      </c>
+      <c r="K66" s="2">
+        <v>3.1246000000000003E-10</v>
+      </c>
+      <c r="L66" s="2">
+        <v>2.3953E-10</v>
+      </c>
+      <c r="M66" s="2">
+        <v>3.1247999999999999E-10</v>
+      </c>
+      <c r="N66" s="2">
+        <v>3.1246000000000003E-10</v>
+      </c>
+      <c r="O66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="P66" s="2">
+        <v>1.5624E-10</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>1.5626000000000001E-10</v>
+      </c>
+      <c r="R66" s="2">
+        <v>1.5624E-10</v>
+      </c>
+      <c r="S66" s="2">
+        <v>1.5623000000000001E-10</v>
+      </c>
+      <c r="T66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="U66" s="2">
+        <v>4.9999699999999996E-9</v>
+      </c>
+      <c r="V66" s="2">
+        <v>3.1247999999999999E-10</v>
+      </c>
+      <c r="W66" s="2">
+        <v>3.1250999999999999E-10</v>
+      </c>
+      <c r="X66" s="2">
+        <v>3.1249000000000002E-10</v>
+      </c>
+      <c r="Y66" s="2">
+        <v>3.1252000000000002E-10</v>
+      </c>
+      <c r="Z66" s="2">
+        <v>3.1253000000000001E-10</v>
+      </c>
+      <c r="AA66" s="2">
+        <v>1.5625E-10</v>
+      </c>
+      <c r="AB66" s="2">
+        <v>1.5628E-10</v>
+      </c>
+      <c r="AC66" s="2">
+        <v>3.1252000000000002E-10</v>
+      </c>
+      <c r="AD66" s="2">
+        <v>1.5628E-10</v>
+      </c>
+      <c r="AE66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="AF66" s="2">
+        <v>3.128E-10</v>
+      </c>
+      <c r="AG66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="AH66" s="2">
+        <v>1.5625E-10</v>
+      </c>
+      <c r="AI66" s="2">
+        <v>1.5625E-10</v>
+      </c>
+      <c r="AJ66" s="2">
+        <v>3.1277E-10</v>
+      </c>
+      <c r="AK66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="AL66" s="2">
+        <v>3.1244000000000001E-10</v>
+      </c>
+      <c r="AM66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="AN66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="AO66" s="2">
+        <v>3.1247000000000001E-10</v>
+      </c>
+      <c r="AP66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="AQ66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="AR66" s="2">
+        <v>3.1247999999999999E-10</v>
+      </c>
+      <c r="AS66" s="2">
+        <v>3.1246000000000003E-10</v>
+      </c>
+      <c r="AT66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="AU66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="AV66" s="2">
+        <v>1.5621E-10</v>
+      </c>
+      <c r="AW66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="AX66" s="2">
+        <v>9.6871900000000003E-9</v>
+      </c>
+      <c r="AY66" s="2">
+        <v>1.5625E-10</v>
+      </c>
+      <c r="AZ66" s="2">
+        <v>3.1249000000000002E-10</v>
+      </c>
+      <c r="BA66" s="2">
+        <v>1.5625E-10</v>
+      </c>
+      <c r="BB66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="BC66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="BD66" s="2">
+        <v>3.1247000000000001E-10</v>
+      </c>
+      <c r="BE66" s="2">
+        <v>1.5625E-10</v>
+      </c>
+      <c r="BF66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="BG66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="BH66" s="2">
+        <v>1.5624E-10</v>
+      </c>
+      <c r="BI66" s="2">
+        <v>3.1249000000000002E-10</v>
+      </c>
+      <c r="BJ66" s="2">
+        <v>1.5625E-10</v>
+      </c>
+      <c r="BK66" s="2">
+        <v>1.5626000000000001E-10</v>
+      </c>
+      <c r="BL66" s="2">
+        <v>3.1250999999999999E-10</v>
+      </c>
+      <c r="BM66" s="2">
+        <v>3.1247999999999999E-10</v>
+      </c>
+      <c r="BN66" s="2">
+        <v>3.1218999999999998E-10</v>
+      </c>
+      <c r="BO66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="BP66" s="2">
+        <v>1.5624E-10</v>
+      </c>
+      <c r="BQ66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="BR66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="BS66" s="2">
+        <v>3.1217000000000002E-10</v>
+      </c>
+      <c r="BT66" s="2">
+        <v>1.5625E-10</v>
+      </c>
+      <c r="BU66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="BV66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="BW66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="BX66" s="2">
+        <v>3.1250999999999999E-10</v>
+      </c>
+      <c r="BY66" s="2">
+        <v>3.1249000000000002E-10</v>
+      </c>
+      <c r="BZ66" s="2">
+        <v>3.1247999999999999E-10</v>
+      </c>
+      <c r="CA66" s="2">
+        <v>1.5625E-10</v>
+      </c>
+      <c r="CB66" s="2">
+        <v>1.5625E-10</v>
+      </c>
+      <c r="CC66" s="2">
+        <v>1.5625E-10</v>
+      </c>
+      <c r="CD66" s="2">
+        <v>1.5629999999999999E-10</v>
+      </c>
+      <c r="CE66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="CF66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="CG66" s="2">
+        <v>3.128E-10</v>
+      </c>
+      <c r="CH66" s="2">
+        <v>3.1220000000000002E-10</v>
+      </c>
+      <c r="CI66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="CJ66" s="2">
+        <v>3.1220000000000002E-10</v>
+      </c>
+      <c r="CK66" s="2">
+        <v>3.1249000000000002E-10</v>
+      </c>
+      <c r="CL66" s="2">
+        <v>1.5625E-10</v>
+      </c>
+      <c r="CM66" s="2">
+        <v>3.1249000000000002E-10</v>
+      </c>
+      <c r="CN66" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="2">
+        <v>3.1252000000000002E-10</v>
+      </c>
+      <c r="C67" s="2">
+        <v>3.1220000000000002E-10</v>
+      </c>
+      <c r="D67" s="2">
+        <v>4.6871000000000003E-10</v>
+      </c>
+      <c r="E67" s="2">
+        <v>4.6874999999999996E-10</v>
+      </c>
+      <c r="F67" s="2">
+        <v>4.6841000000000004E-10</v>
+      </c>
+      <c r="G67" s="2">
+        <v>4.6874999999999996E-10</v>
+      </c>
+      <c r="H67" s="2">
+        <v>3.1238000000000001E-10</v>
+      </c>
+      <c r="I67" s="2">
+        <v>4.6874999999999996E-10</v>
+      </c>
+      <c r="J67" s="2">
+        <v>4.6874999999999996E-10</v>
+      </c>
+      <c r="K67" s="2">
+        <v>3.1249000000000002E-10</v>
+      </c>
+      <c r="L67" s="2">
+        <v>4.6874999999999996E-10</v>
+      </c>
+      <c r="M67" s="2">
+        <v>4.6873999999999998E-10</v>
+      </c>
+      <c r="N67" s="2">
+        <v>4.6907000000000001E-10</v>
+      </c>
+      <c r="O67" s="2">
+        <v>4.6876000000000004E-10</v>
+      </c>
+      <c r="P67" s="2">
+        <v>3.1249000000000002E-10</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>4.6906000000000003E-10</v>
+      </c>
+      <c r="R67" s="2">
+        <v>3.1247000000000001E-10</v>
+      </c>
+      <c r="S67" s="2">
+        <v>3.1279000000000001E-10</v>
+      </c>
+      <c r="T67" s="2">
+        <v>4.6874999999999996E-10</v>
+      </c>
+      <c r="U67" s="2">
+        <v>4.6876000000000004E-10</v>
+      </c>
+      <c r="V67" s="2">
+        <v>3.1244999999999999E-10</v>
+      </c>
+      <c r="W67" s="2">
+        <v>4.6874999999999996E-10</v>
+      </c>
+      <c r="X67" s="2">
+        <v>4.6874999999999996E-10</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>3.1250999999999999E-10</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>4.6905000000000005E-10</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>4.6876000000000004E-10</v>
+      </c>
+      <c r="AB67" s="2">
+        <v>3.1247999999999999E-10</v>
+      </c>
+      <c r="AC67" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="AD67" s="2">
+        <v>4.6873999999999998E-10</v>
+      </c>
+      <c r="AE67" s="2">
+        <v>4.6874999999999996E-10</v>
+      </c>
+      <c r="AF67" s="2">
+        <v>3.1217000000000002E-10</v>
+      </c>
+      <c r="AG67" s="2">
+        <v>3.1249000000000002E-10</v>
+      </c>
+      <c r="AH67" s="2">
+        <v>3.1250999999999999E-10</v>
+      </c>
+      <c r="AI67" s="2">
+        <v>4.6905000000000005E-10</v>
+      </c>
+      <c r="AJ67" s="2">
+        <v>3.1282000000000001E-10</v>
+      </c>
+      <c r="AK67" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="AL67" s="2">
+        <v>3.1218999999999998E-10</v>
+      </c>
+      <c r="AM67" s="2">
+        <v>3.1250999999999999E-10</v>
+      </c>
+      <c r="AN67" s="2">
+        <v>3.1249000000000002E-10</v>
+      </c>
+      <c r="AO67" s="2">
+        <v>4.6874999999999996E-10</v>
+      </c>
+      <c r="AP67" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="AQ67" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="AR67" s="2">
+        <v>4.6876000000000004E-10</v>
+      </c>
+      <c r="AS67" s="2">
+        <v>3.1220000000000002E-10</v>
+      </c>
+      <c r="AT67" s="2">
+        <v>4.6874999999999996E-10</v>
+      </c>
+      <c r="AU67" s="2">
+        <v>4.6860000000000002E-10</v>
+      </c>
+      <c r="AV67" s="2">
+        <v>4.6876000000000004E-10</v>
+      </c>
+      <c r="AW67" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="AX67" s="2">
+        <v>3.1218E-10</v>
+      </c>
+      <c r="AY67" s="2">
+        <v>3.1279000000000001E-10</v>
+      </c>
+      <c r="AZ67" s="2">
+        <v>3.1253000000000001E-10</v>
+      </c>
+      <c r="BA67" s="2">
+        <v>3.1249000000000002E-10</v>
+      </c>
+      <c r="BB67" s="2">
+        <v>3.1253999999999999E-10</v>
+      </c>
+      <c r="BC67" s="2">
+        <v>3.1249000000000002E-10</v>
+      </c>
+      <c r="BD67" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="BE67" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="BF67" s="2">
+        <v>4.6877000000000003E-10</v>
+      </c>
+      <c r="BG67" s="2">
+        <v>4.6873999999999998E-10</v>
+      </c>
+      <c r="BH67" s="2">
+        <v>4.6845999999999995E-10</v>
+      </c>
+      <c r="BI67" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="BJ67" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="BK67" s="2">
+        <v>3.1252000000000002E-10</v>
+      </c>
+      <c r="BL67" s="2">
+        <v>3.1282000000000001E-10</v>
+      </c>
+      <c r="BM67" s="2">
+        <v>4.6872999999999999E-10</v>
+      </c>
+      <c r="BN67" s="2">
+        <v>3.1218999999999998E-10</v>
+      </c>
+      <c r="BO67" s="2">
+        <v>4.6876000000000004E-10</v>
+      </c>
+      <c r="BP67" s="2">
+        <v>4.6874999999999996E-10</v>
+      </c>
+      <c r="BQ67" s="2">
+        <v>4.6877000000000003E-10</v>
+      </c>
+      <c r="BR67" s="2">
+        <v>4.6874999999999996E-10</v>
+      </c>
+      <c r="BS67" s="2">
+        <v>4.6873999999999998E-10</v>
+      </c>
+      <c r="BT67" s="2">
+        <v>3.1250999999999999E-10</v>
+      </c>
+      <c r="BU67" s="2">
+        <v>4.6876000000000004E-10</v>
+      </c>
+      <c r="BV67" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="BW67" s="2">
+        <v>4.6874999999999996E-10</v>
+      </c>
+      <c r="BX67" s="2">
+        <v>3.1246000000000003E-10</v>
+      </c>
+      <c r="BY67" s="2">
+        <v>4.6876000000000004E-10</v>
+      </c>
+      <c r="BZ67" s="2">
+        <v>4.6874999999999996E-10</v>
+      </c>
+      <c r="CA67" s="2">
+        <v>3.1249000000000002E-10</v>
+      </c>
+      <c r="CB67" s="2">
+        <v>3.1252000000000002E-10</v>
+      </c>
+      <c r="CC67" s="2">
+        <v>4.6896E-10</v>
+      </c>
+      <c r="CD67" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="CE67" s="2">
+        <v>4.6845999999999995E-10</v>
+      </c>
+      <c r="CF67" s="2">
+        <v>4.6874999999999996E-10</v>
+      </c>
+      <c r="CG67" s="2">
+        <v>4.6879999999999997E-10</v>
+      </c>
+      <c r="CH67" s="2">
+        <v>4.6874999999999996E-10</v>
+      </c>
+      <c r="CI67" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="CJ67" s="2">
+        <v>3.1247000000000001E-10</v>
+      </c>
+      <c r="CK67" s="2">
+        <v>4.6876000000000004E-10</v>
+      </c>
+      <c r="CL67" s="2">
+        <v>4.6879999999999997E-10</v>
+      </c>
+      <c r="CM67" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="CN67" s="2">
+        <v>4.6873999999999998E-10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1.5622E-10</v>
+      </c>
+      <c r="C68" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="D68" s="2">
+        <v>3.1250999999999999E-10</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1.5619999999999999E-10</v>
+      </c>
+      <c r="F68" s="2">
+        <v>3.1280999999999998E-10</v>
+      </c>
+      <c r="G68" s="2">
+        <v>3.1249000000000002E-10</v>
+      </c>
+      <c r="H68" s="2">
+        <v>3.128E-10</v>
+      </c>
+      <c r="I68" s="2">
+        <v>1.5625E-10</v>
+      </c>
+      <c r="J68" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="K68" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="L68" s="2">
+        <v>3.1250999999999999E-10</v>
+      </c>
+      <c r="M68" s="2">
+        <v>1.5625E-10</v>
+      </c>
+      <c r="N68" s="2">
+        <v>1.5625E-10</v>
+      </c>
+      <c r="O68" s="2">
+        <v>1.5616000000000001E-10</v>
+      </c>
+      <c r="P68" s="2">
+        <v>3.1250999999999999E-10</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>4.6878999999999999E-10</v>
+      </c>
+      <c r="R68" s="2">
+        <v>3.1249000000000002E-10</v>
+      </c>
+      <c r="S68" s="2">
+        <v>3.1249000000000002E-10</v>
+      </c>
+      <c r="T68" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="U68" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="V68" s="2">
+        <v>3.1246000000000003E-10</v>
+      </c>
+      <c r="W68" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="X68" s="2">
+        <v>1.5626000000000001E-10</v>
+      </c>
+      <c r="Y68" s="2">
+        <v>1.5626000000000001E-10</v>
+      </c>
+      <c r="Z68" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="AA68" s="2">
+        <v>3.1259999999999999E-10</v>
+      </c>
+      <c r="AB68" s="2">
+        <v>1.5624E-10</v>
+      </c>
+      <c r="AC68" s="2">
+        <v>3.1252000000000002E-10</v>
+      </c>
+      <c r="AD68" s="2">
+        <v>3.1217000000000002E-10</v>
+      </c>
+      <c r="AE68" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="AF68" s="2">
+        <v>1.5625E-10</v>
+      </c>
+      <c r="AG68" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="AH68" s="2">
+        <v>3.1250999999999999E-10</v>
+      </c>
+      <c r="AI68" s="2">
+        <v>1.5624E-10</v>
+      </c>
+      <c r="AJ68" s="2">
+        <v>3.1217000000000002E-10</v>
+      </c>
+      <c r="AK68" s="2">
+        <v>1.5626000000000001E-10</v>
+      </c>
+      <c r="AL68" s="2">
+        <v>1.5625E-10</v>
+      </c>
+      <c r="AM68" s="2">
+        <v>3.1252000000000002E-10</v>
+      </c>
+      <c r="AN68" s="2">
+        <v>3.1250999999999999E-10</v>
+      </c>
+      <c r="AO68" s="2">
+        <v>3.1247999999999999E-10</v>
+      </c>
+      <c r="AP68" s="2">
+        <v>1.5625E-10</v>
+      </c>
+      <c r="AQ68" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="AR68" s="2">
+        <v>6.2502999999999996E-10</v>
+      </c>
+      <c r="AS68" s="2">
+        <v>1.5625E-10</v>
+      </c>
+      <c r="AT68" s="2">
+        <v>1.5626000000000001E-10</v>
+      </c>
+      <c r="AU68" s="2">
+        <v>3.1250999999999999E-10</v>
+      </c>
+      <c r="AV68" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="AW68" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="AX68" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="AY68" s="2">
+        <v>3.1250999999999999E-10</v>
+      </c>
+      <c r="AZ68" s="2">
+        <v>1.5626000000000001E-10</v>
+      </c>
+      <c r="BA68" s="2">
+        <v>1.5625E-10</v>
+      </c>
+      <c r="BB68" s="2">
+        <v>1.5624E-10</v>
+      </c>
+      <c r="BC68" s="2">
+        <v>1.5626000000000001E-10</v>
+      </c>
+      <c r="BD68" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="BE68" s="2">
+        <v>3.1244999999999999E-10</v>
+      </c>
+      <c r="BF68" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="BG68" s="2">
+        <v>3.1265E-10</v>
+      </c>
+      <c r="BH68" s="2">
+        <v>3.1252000000000002E-10</v>
+      </c>
+      <c r="BI68" s="2">
+        <v>3.1247999999999999E-10</v>
+      </c>
+      <c r="BJ68" s="2">
+        <v>3.1241000000000001E-10</v>
+      </c>
+      <c r="BK68" s="2">
+        <v>1.5621E-10</v>
+      </c>
+      <c r="BL68" s="2">
+        <v>3.1249000000000002E-10</v>
+      </c>
+      <c r="BM68" s="2">
+        <v>3.1249000000000002E-10</v>
+      </c>
+      <c r="BN68" s="2">
+        <v>1.5626000000000001E-10</v>
+      </c>
+      <c r="BO68" s="2">
+        <v>1.5623000000000001E-10</v>
+      </c>
+      <c r="BP68" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="BQ68" s="2">
+        <v>1.5625E-10</v>
+      </c>
+      <c r="BR68" s="2">
+        <v>1.5625E-10</v>
+      </c>
+      <c r="BS68" s="2">
+        <v>3.128E-10</v>
+      </c>
+      <c r="BT68" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="BU68" s="2">
+        <v>3.1265E-10</v>
+      </c>
+      <c r="BV68" s="2">
+        <v>1.5626000000000001E-10</v>
+      </c>
+      <c r="BW68" s="2">
+        <v>3.1280999999999998E-10</v>
+      </c>
+      <c r="BX68" s="2">
+        <v>3.1252000000000002E-10</v>
+      </c>
+      <c r="BY68" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="BZ68" s="2">
+        <v>1.5607999999999999E-10</v>
+      </c>
+      <c r="CA68" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="CB68" s="2">
+        <v>3.1250000000000001E-10</v>
+      </c>
+      <c r="CC68" s="2">
+        <v>1.5626000000000001E-10</v>
+      </c>
+      <c r="CD68" s="2">
+        <v>3.1252000000000002E-10</v>
+      </c>
+      <c r="CE68" s="2">
+        <v>1.5625E-10</v>
+      </c>
+      <c r="CF68" s="2">
+        <v>3.1249000000000002E-10</v>
+      </c>
+      <c r="CG68" s="2">
+        <v>1.5625E-10</v>
+      </c>
+      <c r="CH68" s="2">
+        <v>1.5626000000000001E-10</v>
+      </c>
+      <c r="CI68" s="2">
+        <v>3.1221E-10</v>
+      </c>
+      <c r="CJ68" s="2">
+        <v>3.1223000000000002E-10</v>
+      </c>
+      <c r="CK68" s="2">
+        <v>1.5625E-10</v>
+      </c>
+      <c r="CL68" s="2">
+        <v>3.1247999999999999E-10</v>
+      </c>
+      <c r="CM68" s="2">
+        <v>3.1218E-10</v>
+      </c>
+      <c r="CN68" s="2">
+        <v>1.5626000000000001E-10</v>
       </c>
     </row>
   </sheetData>
